--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_wikidata_results_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\baseline-model\baseline-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7EED8B-C8BF-4B91-820A-2511E5C0DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA6268-6E1B-4589-89E4-5095E48B0696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="449">
   <si>
     <t>Question</t>
   </si>
@@ -349,306 +349,6 @@
     <t>Who created Goofy?</t>
   </si>
   <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?founder WHERE { wd:Q554155 wdt:P112 ?founder }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q93751. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical ?musicalLabel WHERE { ?musical wdt:P31 wd:Q1346457; wdt:P175 wd:Q40703. SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { wd:Q155998 wdt:P178 ?developer. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028. ?item wdt:P118 wd:Q18222. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?actor WHERE { ?film wdt:P57 wd:Q38121. ?film wdt:P161 ?actor. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424; wdt:P161 wd:Q38111. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q9582 wdt:P570 ?date. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34404 ; wdt:P161 wd:Q31008 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?developerLabel WHERE { wd:Q30418 p:P178 ?developerStatement . ?developerStatement ps:P178 ?developer . ?developer rdfs:label ?developerLabel . FILTER (LANG(?developerLabel) = "en") }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q15433732 wdt:P2130 ?n . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY ASC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q179990 wdt:P2047 ?runtime . }</t>
-  </si>
-  <si>
-    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q36834; wdt:P1303 wd:Q8389. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424. ?film wdt:P161 wd:Q40517. ?film wdt:P57 wd:Q353196. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { wd:Q236816 wdt:P569 ?year }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q1197471 wdt:P2048 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?mountain ?mountainLabel WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P17 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?elevation) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT ?business WHERE { wd:Q22686 dbo:owner ?business. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P26 wd:Q39624. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q877 dbo:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wd:Q192740 wdt:P50 ?Author }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q12769 dbt:P569 ?date }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 dct:P1082 ?europop . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q148 wdt:P38 ?currency }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q7378; wdt:P1440 wd:Q7768. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?island WHERE { ?island wdt:P31 wd:Q23442; wdt:P17 wd:Q17. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { wd:Q134230 wdt:P178 ?developer . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q783794. ?company wdt:P452 wd:Q1397559. SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 dbo:almaMater ?university }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?tvShow WHERE { ?tvShow wdt:P31 wd:Q5398426; wdt:P161 wd:Q275777. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424; wdt:P161 wd:Q9495. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q513 wdt:P17 ?country . ?country wdt:P31 wd:Q6256 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q10935 dbo:crosses ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?swimmer WHERE { ?swimmer wdt:P106 wd:Q2085389 ; wdt:P19 wd:Q649 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q93417 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q5816 wdt:P1082 ?pop }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?person WHERE { ?person wdt:P31 wd:Q5. ?person wdt:P19 wd:Q194157. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q10654 wdt:P40 ?child . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q155982 wdt:P2044 ?ele } LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1341 wdt:P17 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT DISTINCT ?height WHERE { wd:Q7833 wdt:P2048 ?height . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?author WHERE { wd:Q185734 wdt:P50 ?author }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?genre WHERE { wd:Q188438 wdt:P136 ?genre. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wd:Q39200 wdt:P19 ?place }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?city WHERE { ?city wdt:P31 wd:Q515 ; wdt:P1082 ?pop } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?tvShow WHERE { ?tvShow wdt:P31 wd:Q5398426 ; wdt:P170 wd:Q7031 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q14550 . ?holiday wdt:P17 wd:Q34 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2130 ?ni . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?deathPlace WHERE { wd:Q91 wdt:P20 ?deathPlace. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?capital WHERE { wd:Q7270 &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q1543127 wdt:P17 ?country . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?film WHERE { ?film wdt:P57 &lt;http://www.wikidata.org/entity/Q9653&gt; ; wdt:P345 &lt;http://www.wikidata.org/entity/Q9653&gt; . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { ?country wdt:P31 wd:Q6256. ?country wdt:P38 ?currency. ?currency wdt:P279+ wd:Q25998. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q12818. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278. ?item wdt:P17 wd:Q41. ?item wdt:P1142 wd:Q1381919. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?date WHERE { wd:Q179836 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?movement WHERE { wd:Q1101084 wdt:P170 ?painter . ?painter wdt:P135 ?movement . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?actor WHERE { ?actor wdt:P106 wd:Q33999; wdt:P19 wd:Q183. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q8012 wdt:P84 ?uri }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?composer WHERE { wd:Q13615 wdt:P86 ?composer . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424 ; wdt:P57 wd:Q42482 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q17477 wdt:P1477 ?bn }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q188931 ; wdt:P577 ?d . } ORDER BY ASC(?d) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wdt:P38 ?currency . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?person WHERE { ?person wdt:P19 wd:Q1741; wdt:P20 wd:Q64. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280; wdt:P159 wd:Q1282. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) LIMIT 1</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5398426 ; wdt:P170 wd:Q61358 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?writer WHERE { ?writer wdt:P106 wd:Q36180 ; wdt:P166 wd:Q57907 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q938 dct:discoverer ?discoverer. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q488205; wdt:P1303 wd:Q12513. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?player WHERE { ?player wdt:P106 wd:Q3665646. ?player wdt:P2048 ?height. FILTER (?height &gt; 200) }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q11080 . ?film wdt:P161 wd:Q18758 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q16 wdt:P36 ?capital . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }</t>
-  </si>
-  <si>
-    <t>SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q159. } UNION { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q15180. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { wd:Q11617 wdt:P170 ?creator }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q1494 wdt:P1082 ?population }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator ?creatorLabel WHERE { wd:Q8322 wdt:P170 ?creator . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 dbo:capital ?x . ?x wdt:P1082 ?num . }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1197 dbo:areaTotal ?tarea }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?number WHERE { wd:Q37156 p:P1128 ?statement. ?statement ps:P1128 ?number. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q165665 wdt:P2130 ?n }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424. ?uri wdt:P161 wd:Q216884. }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P495 wd:Q35 . }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?country WHERE { wd:Q7270 wdt:P17 ?country. }</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256 ; wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
-  </si>
-  <si>
-    <t>PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 dbt:P69 ?AlmaMater }</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT ?creator WHERE { wd:Q930881 wdt:P170 ?creator. }</t>
-  </si>
-  <si>
     <t>SELECT ?o1 WHERE { &lt;http://www.wikidata.org/entity/Q1336200&gt;  &lt;http://www.wikidata.org/prop/direct/P112&gt;  ?o1 .  }</t>
   </si>
   <si>
@@ -1265,293 +965,1043 @@
   </si>
   <si>
     <t>None</t>
+  </si>
+  <si>
+    <t>Query Bad Formed</t>
+  </si>
+  <si>
+    <t>Wrong Entity</t>
+  </si>
+  <si>
+    <t>Missing P31</t>
+  </si>
+  <si>
+    <t>Wrong Property</t>
+  </si>
+  <si>
+    <t>Error Category  2</t>
+  </si>
+  <si>
+    <t>Structural Error</t>
+  </si>
+  <si>
+    <t>Error Category  3</t>
+  </si>
+  <si>
+    <t>Error Category  4</t>
+  </si>
+  <si>
+    <t>Unadapted Dataset Patterns</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?founder WHERE { wd:Q554155 wdt:P112 ?founder }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P57 wd:Q93751. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical ?musicalLabel WHERE { ?musical wdt:P31 wd:Q1346457; wdt:P175 wd:Q40703. SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 201,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical ?musicalLabel WHERE { ?musical wdt:P31 wd:Q1346457; wdt:P175 wd:Q40703. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 201,\n        "stopIndex": 214\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical ?musicalLabel WHERE { ?musical wdt:P31 wd:Q1346457; wdt:P175 wd:Q40703. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 201,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical ?musicalLabel WHERE { ?musical wdt:P31 wd:Q1346457; wdt:P175 wd:Q40703. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 499,\n        "stopIndex": 512\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?musical ?musicalLabel WHERE { ?musical wdt:P31 wd:Q1346457; wdt:P175 wd:Q40703. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { wd:Q155998 wdt:P178 ?developer. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028. ?item wdt:P118 wd:Q18222. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?actor WHERE { ?film wdt:P57 wd:Q38121. ?film wdt:P161 ?actor. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424; wdt:P161 wd:Q38111. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q9582 wdt:P570 ?date. }</t>
+  </si>
+  <si>
+    <t>['2006-12-26T00:00:00Z']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34404 ; wdt:P161 wd:Q31008 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?developerLabel WHERE { wd:Q30418 p:P178 ?developerStatement . ?developerStatement ps:P178 ?developer . ?developer rdfs:label ?developerLabel . FILTER (LANG(?developerLabel) = "en") }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q15433732 wdt:P2130 ?n . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY ASC(?date) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028. ?item wdt:P118 wd:Q18222. }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q476028. ?item wdt:P118 wd:Q18222. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 365,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ASC(?date) LIMIT 1",\n        "startIndex": 663,\n        "stopIndex": 676\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ASC(?date) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?runtime WHERE { wd:Q179990 wdt:P2047 ?runtime . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q36834; wdt:P1303 wd:Q8389. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424. ?film wdt:P161 wd:Q40517. ?film wdt:P57 wd:Q353196. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?year WHERE { wd:Q236816 wdt:P569 ?year }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q1324130']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q1197471 wdt:P2048 ?num . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?mountain ?mountainLabel WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P17 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } } ORDER BY DESC(?elevation) LIMIT 1</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 44,\n        "query": "SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 44,\n        "stopIndex": 50\n    },\n    "query": "SELECT DISTINCT ?mountain WHERE { ?mountain wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix bd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 335,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?mountain ?mountainLabel WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P17 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 633,\n        "stopIndex": 647\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?mountain ?mountainLabel WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P17 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q937 wdt:P184 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT ?business WHERE { wd:Q22686 dbo:owner ?business. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 51,\n        "query": "SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424; wdt:P161 wd:Q38111. }",\n        "startIndex": 51,\n        "stopIndex": 57\n    },\n    "query": "SELECT (COUNT(DISTINCT ?film) AS ?c) WHERE { ?film wdt:P31 wd:Q11424; wdt:P161 wd:Q38111. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 325,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT ?business WHERE { wd:Q22686 dbo:owner ?business. }",\n        "startIndex": 623,\n        "stopIndex": 631\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT ?business WHERE { wd:Q22686 dbo:owner ?business. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P26 wd:Q39624. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q877 dbo:P1082 ?population }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q9582 wdt:P570 ?date. }",\n        "startIndex": 30,\n        "stopIndex": 37\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q9582 wdt:P570 ?date. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 140,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q877 dbo:P1082 ?population }",\n        "startIndex": 438,\n        "stopIndex": 446\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q877 dbo:P1082 ?population }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?Author WHERE { wd:Q192740 wdt:P50 ?Author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q12769 dbt:P569 ?date }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34404 ; wdt:P161 wd:Q31008 . }",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P161 wd:Q34404 ; wdt:P161 wd:Q31008 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 136,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q12769 dbt:P569 ?date }",\n        "startIndex": 434,\n        "stopIndex": 441\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q12769 dbt:P569 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 dct:P1082 ?europop . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?developerLabel WHERE { wd:Q30418 p:P178 ?developerStatement . ?developerStatement ps:P178 ?developer . ?developer rdfs:label ?developerLabel . FILTER (LANG(?developerLabel) = \\"en\\") }",\n        "startIndex": 40,\n        "stopIndex": 48\n    },\n    "query": "SELECT DISTINCT ?developerLabel WHERE { wd:Q30418 p:P178 ?developerStatement . ?developerStatement ps:P178 ?developer . ?developer rdfs:label ?developerLabel . FILTER (LANG(?developerLabel) = \\"en\\") }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dct was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 128,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 dct:P1082 ?europop . }",\n        "startIndex": 426,\n        "stopIndex": 434\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 dct:P1082 ?europop . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q148 wdt:P38 ?currency }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?x WHERE { wd:Q692 wdt:P570 ?x } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q7378; wdt:P1440 wd:Q7768. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?island WHERE { ?island wdt:P31 wd:Q23442; wdt:P17 wd:Q17. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?developer WHERE { wd:Q134230 wdt:P178 ?developer . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q783794. ?company wdt:P452 wd:Q1397559. SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 365,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ASC(?date) LIMIT 1",\n        "startIndex": 365,\n        "stopIndex": 378\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?label WHERE { ?album wdt:P31 wd:Q482994 ; wdt:P175 wd:Q303 ; wdt:P577 ?date ; wdt:P264 ?label . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY ASC(?date) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 115,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q783794. ?company wdt:P452 wd:Q1397559. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 413,\n        "stopIndex": 426\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q783794. ?company wdt:P452 wd:Q1397559. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 dbo:almaMater ?university }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424. ?film wdt:P161 wd:Q40517. ?film wdt:P57 wd:Q353196. }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424. ?film wdt:P161 wd:Q40517. ?film wdt:P57 wd:Q353196. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 140,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 dbo:almaMater ?university }",\n        "startIndex": 438,\n        "stopIndex": 450\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 dbo:almaMater ?university }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?tvShow WHERE { ?tvShow wdt:P31 wd:Q5398426; wdt:P161 wd:Q275777. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424; wdt:P161 wd:Q9495. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q513 wdt:P17 ?country . ?country wdt:P31 wd:Q6256 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q10935 dbo:crosses ?uri }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1",\n        "startIndex": 32,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?x WHERE { ?uri wdt:P509 ?x . } ORDER BY DESC(COUNT(DISTINCT ?uri)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 135,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q10935 dbo:crosses ?uri }",\n        "startIndex": 433,\n        "stopIndex": 443\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q10935 dbo:crosses ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?swimmer WHERE { ?swimmer wdt:P106 wd:Q2085389 ; wdt:P19 wd:Q649 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P161 wd:Q93417 ; wdt:P577 ?date . } ORDER BY DESC(?date) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q945543']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pop WHERE { wd:Q5816 wdt:P1082 ?pop }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?person WHERE { ?person wdt:P31 wd:Q5. ?person wdt:P19 wd:Q194157. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT (COUNT(DISTINCT ?child) AS ?c) WHERE { wd:Q10654 wdt:P40 ?child . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?ele WHERE { wd:Q155982 wdt:P2044 ?ele } LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1341 wdt:P17 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT DISTINCT ?height WHERE { wd:Q7833 wdt:P2048 ?height . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?author WHERE { wd:Q185734 wdt:P50 ?author }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?genre WHERE { wd:Q188438 wdt:P136 ?genre. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?place WHERE { wd:Q39200 wdt:P19 ?place }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?city WHERE { ?city wdt:P31 wd:Q515 ; wdt:P1082 ?pop } ORDER BY ASC(?pop) OFFSET 0 LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?tvShow WHERE { ?tvShow wdt:P31 wd:Q5398426 ; wdt:P170 wd:Q7031 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q14550 . ?holiday wdt:P17 wd:Q34 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2130 ?ni . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?deathPlace WHERE { wd:Q91 wdt:P20 ?deathPlace. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?capital WHERE { wd:Q7270 &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?country WHERE { wd:Q1543127 wdt:P17 ?country . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q41421 wdt:P2048 ?num }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?film WHERE { ?film wdt:P57 &lt;http://www.wikidata.org/entity/Q9653&gt; ; wdt:P345 &lt;http://www.wikidata.org/entity/Q9653&gt; . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { ?country wdt:P31 wd:Q6256. ?country wdt:P38 ?currency. ?currency wdt:P279+ wd:Q25998. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?pIraq WHERE { wd:Q796 wdt:P1082 ?pIraq }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q12818. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278. ?item wdt:P17 wd:Q41. ?item wdt:P1142 wd:Q1381919. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?date WHERE { wd:Q179836 wdt:P161 ?actor . ?actor wdt:P569 ?date . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?movement WHERE { wd:Q1101084 wdt:P170 ?painter . ?painter wdt:P135 ?movement . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?actor WHERE { ?actor wdt:P106 wd:Q33999; wdt:P19 wd:Q183. }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q102635', 'http://www.wikidata.org/entity/Q104699210', 'http://www.wikidata.org/entity/Q105062031', 'http://www.wikidata.org/entity/Q105062089', 'http://www.wikidata.org/entity/Q105607', 'http://www.wikidata.org/entity/Q105654184', 'http://www.wikidata.org/entity/Q105746355', 'http://www.wikidata.org/entity/Q107315059', 'http://www.wikidata.org/entity/Q107547779', 'http://www.wikidata.org/entity/Q1078293', 'http://www.wikidata.org/entity/Q109417403', 'http://www.wikidata.org/entity/Q109786', 'http://www.wikidata.org/entity/Q110669', 'http://www.wikidata.org/entity/Q111087041', 'http://www.wikidata.org/entity/Q111136904', 'http://www.wikidata.org/entity/Q1111936', 'http://www.wikidata.org/entity/Q111989367', 'http://www.wikidata.org/entity/Q112040740', 'http://www.wikidata.org/entity/Q113525050', 'http://www.wikidata.org/entity/Q11368045', 'http://www.wikidata.org/entity/Q113956038', 'http://www.wikidata.org/entity/Q114465117', 'http://www.wikidata.org/entity/Q1144993', 'http://www.wikidata.org/entity/Q1160773', 'http://www.wikidata.org/entity/Q11989607', 'http://www.wikidata.org/entity/Q120116', 'http://www.wikidata.org/entity/Q12021841', 'http://www.wikidata.org/entity/Q122123', 'http://www.wikidata.org/entity/Q123683661', 'http://www.wikidata.org/entity/Q123683695', 'http://www.wikidata.org/entity/Q12388329', 'http://www.wikidata.org/entity/Q123973166', 'http://www.wikidata.org/entity/Q124128425', 'http://www.wikidata.org/entity/Q126708639', 'http://www.wikidata.org/entity/Q1283065', 'http://www.wikidata.org/entity/Q1287152', 'http://www.wikidata.org/entity/Q13101072', 'http://www.wikidata.org/entity/Q13590460', 'http://www.wikidata.org/entity/Q1489705', 'http://www.wikidata.org/entity/Q1533711', 'http://www.wikidata.org/entity/Q15428525', 'http://www.wikidata.org/entity/Q15433691', 'http://www.wikidata.org/entity/Q15438521', 'http://www.wikidata.org/entity/Q15791183', 'http://www.wikidata.org/entity/Q16061428', 'http://www.wikidata.org/entity/Q16065123', 'http://www.wikidata.org/entity/Q16066623', 'http://www.wikidata.org/entity/Q16138668', 'http://www.wikidata.org/entity/Q16185696', 'http://www.wikidata.org/entity/Q16200019', 'http://www.wikidata.org/entity/Q16609597', 'http://www.wikidata.org/entity/Q17046083', 'http://www.wikidata.org/entity/Q17385556', 'http://www.wikidata.org/entity/Q17410833', 'http://www.wikidata.org/entity/Q18412419', 'http://www.wikidata.org/entity/Q18625945', 'http://www.wikidata.org/entity/Q18812061', 'http://www.wikidata.org/entity/Q1893209', 'http://www.wikidata.org/entity/Q1928504', 'http://www.wikidata.org/entity/Q19665220', 'http://www.wikidata.org/entity/Q1974089', 'http://www.wikidata.org/entity/Q1985803', 'http://www.wikidata.org/entity/Q19936977', 'http://www.wikidata.org/entity/Q20111787', 'http://www.wikidata.org/entity/Q21451861', 'http://www.wikidata.org/entity/Q2154868', 'http://www.wikidata.org/entity/Q2172655', 'http://www.wikidata.org/entity/Q22958110', 'http://www.wikidata.org/entity/Q22973392', 'http://www.wikidata.org/entity/Q2336644', 'http://www.wikidata.org/entity/Q25914018', 'http://www.wikidata.org/entity/Q26918701', 'http://www.wikidata.org/entity/Q27182140', 'http://www.wikidata.org/entity/Q277650', 'http://www.wikidata.org/entity/Q3025341', 'http://www.wikidata.org/entity/Q3051408', 'http://www.wikidata.org/entity/Q307926', 'http://www.wikidata.org/entity/Q3160573', 'http://www.wikidata.org/entity/Q3199753', 'http://www.wikidata.org/entity/Q33138418', 'http://www.wikidata.org/entity/Q3437139', 'http://www.wikidata.org/entity/Q3495952', 'http://www.wikidata.org/entity/Q3568712', 'http://www.wikidata.org/entity/Q3980859', 'http://www.wikidata.org/entity/Q41249446', 'http://www.wikidata.org/entity/Q41446740', 'http://www.wikidata.org/entity/Q4527638', 'http://www.wikidata.org/entity/Q47455280', 'http://www.wikidata.org/entity/Q48462377', 'http://www.wikidata.org/entity/Q4902498', 'http://www.wikidata.org/entity/Q4932797', 'http://www.wikidata.org/entity/Q493724', 'http://www.wikidata.org/entity/Q4946519', 'http://www.wikidata.org/entity/Q5040978', 'http://www.wikidata.org/entity/Q551286', 'http://www.wikidata.org/entity/Q55439603', 'http://www.wikidata.org/entity/Q5574838', 'http://www.wikidata.org/entity/Q5698755', 'http://www.wikidata.org/entity/Q5704348', 'http://www.wikidata.org/entity/Q57415409', 'http://www.wikidata.org/entity/Q5913946', 'http://www.wikidata.org/entity/Q5980860', 'http://www.wikidata.org/entity/Q6015379', 'http://www.wikidata.org/entity/Q6023712', 'http://www.wikidata.org/entity/Q6026173', 'http://www.wikidata.org/entity/Q6037871', 'http://www.wikidata.org/entity/Q6051790', 'http://www.wikidata.org/entity/Q6061583', 'http://www.wikidata.org/entity/Q6076120', 'http://www.wikidata.org/entity/Q6085393', 'http://www.wikidata.org/entity/Q60876172', 'http://www.wikidata.org/entity/Q6088857', 'http://www.wikidata.org/entity/Q6094689', 'http://www.wikidata.org/entity/Q62591716', 'http://www.wikidata.org/entity/Q63382255', 'http://www.wikidata.org/entity/Q64784487', 'http://www.wikidata.org/entity/Q6577594', 'http://www.wikidata.org/entity/Q70246491', 'http://www.wikidata.org/entity/Q7030048', 'http://www.wikidata.org/entity/Q7151847', 'http://www.wikidata.org/entity/Q72813039', 'http://www.wikidata.org/entity/Q73014334', 'http://www.wikidata.org/entity/Q73330311', 'http://www.wikidata.org/entity/Q7796178', 'http://www.wikidata.org/entity/Q7922389', 'http://www.wikidata.org/entity/Q7933326', 'http://www.wikidata.org/entity/Q79400294', 'http://www.wikidata.org/entity/Q8002249', 'http://www.wikidata.org/entity/Q80345', 'http://www.wikidata.org/entity/Q83367239', 'http://www.wikidata.org/entity/Q86911156', 'http://www.wikidata.org/entity/Q88461719', 'http://www.wikidata.org/entity/Q88551792', 'http://www.wikidata.org/entity/Q89535947', 'http://www.wikidata.org/entity/Q9294712', 'http://www.wikidata.org/entity/Q94911393', 'http://www.wikidata.org/entity/Q95190616', 'http://www.wikidata.org/entity/Q95192876', 'http://www.wikidata.org/entity/Q95199688', 'http://www.wikidata.org/entity/Q95710946', 'http://www.wikidata.org/entity/Q95751929', 'http://www.wikidata.org/entity/Q95837376', 'http://www.wikidata.org/entity/Q95841560', 'http://www.wikidata.org/entity/Q96951970', 'http://www.wikidata.org/entity/Q97478192', 'http://www.wikidata.org/entity/Q97578']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q8012 wdt:P84 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?composer WHERE { wd:Q13615 wdt:P86 ?composer . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424 ; wdt:P57 wd:Q42482 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?bn WHERE { wd:Q17477 wdt:P1477 ?bn }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q482994 ; wdt:P175 wd:Q188931 ; wdt:P577 ?d . } ORDER BY ASC(?d) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?currency WHERE { wd:Q213 wdt:P38 ?currency . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?person WHERE { ?person wdt:P19 wd:Q1741; wdt:P20 wd:Q64. }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100706635', 'http://www.wikidata.org/entity/Q1036737', 'http://www.wikidata.org/entity/Q105047314', 'http://www.wikidata.org/entity/Q105953', 'http://www.wikidata.org/entity/Q105953781', 'http://www.wikidata.org/entity/Q106689415', 'http://www.wikidata.org/entity/Q109745', 'http://www.wikidata.org/entity/Q110162770', 'http://www.wikidata.org/entity/Q111241', 'http://www.wikidata.org/entity/Q112057', 'http://www.wikidata.org/entity/Q112376', 'http://www.wikidata.org/entity/Q113027456', 'http://www.wikidata.org/entity/Q114245296', 'http://www.wikidata.org/entity/Q114557', 'http://www.wikidata.org/entity/Q11764172', 'http://www.wikidata.org/entity/Q11923016', 'http://www.wikidata.org/entity/Q12271681', 'http://www.wikidata.org/entity/Q1234160', 'http://www.wikidata.org/entity/Q123474414', 'http://www.wikidata.org/entity/Q124365519', 'http://www.wikidata.org/entity/Q124369289', 'http://www.wikidata.org/entity/Q1246642', 'http://www.wikidata.org/entity/Q124747852', 'http://www.wikidata.org/entity/Q124798509', 'http://www.wikidata.org/entity/Q124821935', 'http://www.wikidata.org/entity/Q124821984', 'http://www.wikidata.org/entity/Q124823586', 'http://www.wikidata.org/entity/Q124823640', 'http://www.wikidata.org/entity/Q124825392', 'http://www.wikidata.org/entity/Q124826025', 'http://www.wikidata.org/entity/Q124826477', 'http://www.wikidata.org/entity/Q124827127', 'http://www.wikidata.org/entity/Q124834393', 'http://www.wikidata.org/entity/Q124835415', 'http://www.wikidata.org/entity/Q124848868', 'http://www.wikidata.org/entity/Q124959174', 'http://www.wikidata.org/entity/Q125134505', 'http://www.wikidata.org/entity/Q125141527', 'http://www.wikidata.org/entity/Q125168660', 'http://www.wikidata.org/entity/Q125207247', 'http://www.wikidata.org/entity/Q125207322', 'http://www.wikidata.org/entity/Q125224535', 'http://www.wikidata.org/entity/Q125381657', 'http://www.wikidata.org/entity/Q126418132', 'http://www.wikidata.org/entity/Q128209458', 'http://www.wikidata.org/entity/Q128222132', 'http://www.wikidata.org/entity/Q128255861', 'http://www.wikidata.org/entity/Q1289012', 'http://www.wikidata.org/entity/Q129847804', 'http://www.wikidata.org/entity/Q1336307', 'http://www.wikidata.org/entity/Q1336841', 'http://www.wikidata.org/entity/Q1338621', 'http://www.wikidata.org/entity/Q13578778', 'http://www.wikidata.org/entity/Q1360278', 'http://www.wikidata.org/entity/Q1368561', 'http://www.wikidata.org/entity/Q1379309', 'http://www.wikidata.org/entity/Q1379473', 'http://www.wikidata.org/entity/Q1414628', 'http://www.wikidata.org/entity/Q1446365', 'http://www.wikidata.org/entity/Q1449083', 'http://www.wikidata.org/entity/Q1449370', 'http://www.wikidata.org/entity/Q1465742', 'http://www.wikidata.org/entity/Q14842646', 'http://www.wikidata.org/entity/Q1484506', 'http://www.wikidata.org/entity/Q1500209', 'http://www.wikidata.org/entity/Q1501097', 'http://www.wikidata.org/entity/Q1505019', 'http://www.wikidata.org/entity/Q1510986', 'http://www.wikidata.org/entity/Q1511264', 'http://www.wikidata.org/entity/Q1527091', 'http://www.wikidata.org/entity/Q15430458', 'http://www.wikidata.org/entity/Q15439910', 'http://www.wikidata.org/entity/Q15452195', 'http://www.wikidata.org/entity/Q1546037', 'http://www.wikidata.org/entity/Q1555666', 'http://www.wikidata.org/entity/Q1558906', 'http://www.wikidata.org/entity/Q1570857', 'http://www.wikidata.org/entity/Q15734397', 'http://www.wikidata.org/entity/Q1579455', 'http://www.wikidata.org/entity/Q15810299', 'http://www.wikidata.org/entity/Q1581174', 'http://www.wikidata.org/entity/Q15979728', 'http://www.wikidata.org/entity/Q16029991', 'http://www.wikidata.org/entity/Q1604844', 'http://www.wikidata.org/entity/Q1614614', 'http://www.wikidata.org/entity/Q16663352', 'http://www.wikidata.org/entity/Q1691423', 'http://www.wikidata.org/entity/Q1701554', 'http://www.wikidata.org/entity/Q1705540', 'http://www.wikidata.org/entity/Q1707099', 'http://www.wikidata.org/entity/Q1707482', 'http://www.wikidata.org/entity/Q1708747', 'http://www.wikidata.org/entity/Q1732733', 'http://www.wikidata.org/entity/Q1735870', 'http://www.wikidata.org/entity/Q1781063', 'http://www.wikidata.org/entity/Q18027381', 'http://www.wikidata.org/entity/Q18029152', 'http://www.wikidata.org/entity/Q1819735', 'http://www.wikidata.org/entity/Q18223339', 'http://www.wikidata.org/entity/Q18508198', 'http://www.wikidata.org/entity/Q18508531', 'http://www.wikidata.org/entity/Q1903438', 'http://www.wikidata.org/entity/Q1908687', 'http://www.wikidata.org/entity/Q19273686', 'http://www.wikidata.org/entity/Q19288504', 'http://www.wikidata.org/entity/Q194563', 'http://www.wikidata.org/entity/Q20056905', 'http://www.wikidata.org/entity/Q2020596', 'http://www.wikidata.org/entity/Q2040666', 'http://www.wikidata.org/entity/Q2077276', 'http://www.wikidata.org/entity/Q20801784', 'http://www.wikidata.org/entity/Q21168969', 'http://www.wikidata.org/entity/Q22249925', 'http://www.wikidata.org/entity/Q22482410', 'http://www.wikidata.org/entity/Q2338888', 'http://www.wikidata.org/entity/Q23928916', 'http://www.wikidata.org/entity/Q2517436', 'http://www.wikidata.org/entity/Q2581891', 'http://www.wikidata.org/entity/Q2588636', 'http://www.wikidata.org/entity/Q2645934', 'http://www.wikidata.org/entity/Q27670830', 'http://www.wikidata.org/entity/Q27672503', 'http://www.wikidata.org/entity/Q28999', 'http://www.wikidata.org/entity/Q326252', 'http://www.wikidata.org/entity/Q33011834', 'http://www.wikidata.org/entity/Q347559', 'http://www.wikidata.org/entity/Q354466', 'http://www.wikidata.org/entity/Q362952', 'http://www.wikidata.org/entity/Q36668532', 'http://www.wikidata.org/entity/Q4058928', 'http://www.wikidata.org/entity/Q4191716', 'http://www.wikidata.org/entity/Q43378651', 'http://www.wikidata.org/entity/Q45927183', 'http://www.wikidata.org/entity/Q475749', 'http://www.wikidata.org/entity/Q493058', 'http://www.wikidata.org/entity/Q51844316', 'http://www.wikidata.org/entity/Q51844339', 'http://www.wikidata.org/entity/Q51886108', 'http://www.wikidata.org/entity/Q54862358', 'http://www.wikidata.org/entity/Q550639', 'http://www.wikidata.org/entity/Q551155', 'http://www.wikidata.org/entity/Q55674501', 'http://www.wikidata.org/entity/Q55675291', 'http://www.wikidata.org/entity/Q55676433', 'http://www.wikidata.org/entity/Q55681103', 'http://www.wikidata.org/entity/Q55885976', 'http://www.wikidata.org/entity/Q56487519', 'http://www.wikidata.org/entity/Q57385917', 'http://www.wikidata.org/entity/Q60528', 'http://www.wikidata.org/entity/Q60820294', 'http://www.wikidata.org/entity/Q60822973', 'http://www.wikidata.org/entity/Q61930459', 'http://www.wikidata.org/entity/Q61971231', 'http://www.wikidata.org/entity/Q62076483', 'http://www.wikidata.org/entity/Q63485351', 'http://www.wikidata.org/entity/Q6373188', 'http://www.wikidata.org/entity/Q650151', 'http://www.wikidata.org/entity/Q710106', 'http://www.wikidata.org/entity/Q71198', 'http://www.wikidata.org/entity/Q76143', 'http://www.wikidata.org/entity/Q77736', 'http://www.wikidata.org/entity/Q7782918', 'http://www.wikidata.org/entity/Q78614', 'http://www.wikidata.org/entity/Q7983614', 'http://www.wikidata.org/entity/Q85448', 'http://www.wikidata.org/entity/Q85692', 'http://www.wikidata.org/entity/Q86293', 'http://www.wikidata.org/entity/Q86323', 'http://www.wikidata.org/entity/Q86516', 'http://www.wikidata.org/entity/Q86718', 'http://www.wikidata.org/entity/Q872165', 'http://www.wikidata.org/entity/Q87498', 'http://www.wikidata.org/entity/Q87593', 'http://www.wikidata.org/entity/Q87595', 'http://www.wikidata.org/entity/Q87698', 'http://www.wikidata.org/entity/Q88140', 'http://www.wikidata.org/entity/Q88627', 'http://www.wikidata.org/entity/Q88835', 'http://www.wikidata.org/entity/Q89164', 'http://www.wikidata.org/entity/Q90014', 'http://www.wikidata.org/entity/Q90462', 'http://www.wikidata.org/entity/Q911548', 'http://www.wikidata.org/entity/Q94040', 'http://www.wikidata.org/entity/Q94577', 'http://www.wikidata.org/entity/Q94731605', 'http://www.wikidata.org/entity/Q94753105', 'http://www.wikidata.org/entity/Q94761001', 'http://www.wikidata.org/entity/Q94777816', 'http://www.wikidata.org/entity/Q94872174', 'http://www.wikidata.org/entity/Q94887584', 'http://www.wikidata.org/entity/Q94906393', 'http://www.wikidata.org/entity/Q94922778', 'http://www.wikidata.org/entity/Q94938005', 'http://www.wikidata.org/entity/Q95227952', 'http://www.wikidata.org/entity/Q95249180', 'http://www.wikidata.org/entity/Q95389052', 'http://www.wikidata.org/entity/Q95805826', 'http://www.wikidata.org/entity/Q96452']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280; wdt:P159 wd:Q1282. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) LIMIT 1</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q6069405']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5398426 ; wdt:P170 wd:Q61358 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?writer WHERE { ?writer wdt:P106 wd:Q36180 ; wdt:P166 wd:Q57907 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q938 dct:discoverer ?discoverer. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix bd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 335,\n        "query": "PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?mountain ?mountainLabel WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P17 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n        "startIndex": 335,\n        "stopIndex": 349\n    },\n    "query": "PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt; SELECT DISTINCT ?mountain ?mountainLabel WHERE { ?mountain wdt:P31 wd:Q8502; wdt:P17 wd:Q38; wdt:P2044 ?elevation. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } } ORDER BY DESC(?elevation) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dct was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 140,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q938 dct:discoverer ?discoverer. }",\n        "startIndex": 438,\n        "stopIndex": 451\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q938 dct:discoverer ?discoverer. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q488205; wdt:P1303 wd:Q12513. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?player WHERE { ?player wdt:P106 wd:Q3665646. ?player wdt:P2048 ?height. FILTER (?height &gt; 200) }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?film WHERE { ?film wdt:P31 wd:Q11424 . ?film wdt:P161 wd:Q11080 . ?film wdt:P161 wd:Q18758 . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?capital WHERE { wd:Q16 wdt:P36 ?capital . }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100151816', 'http://www.wikidata.org/entity/Q101490959', 'http://www.wikidata.org/entity/Q101492327', 'http://www.wikidata.org/entity/Q106228741', 'http://www.wikidata.org/entity/Q1065590', 'http://www.wikidata.org/entity/Q16146513', 'http://www.wikidata.org/entity/Q16163013', 'http://www.wikidata.org/entity/Q16214810', 'http://www.wikidata.org/entity/Q1685756', 'http://www.wikidata.org/entity/Q1686437', 'http://www.wikidata.org/entity/Q16977455', 'http://www.wikidata.org/entity/Q16977456', 'http://www.wikidata.org/entity/Q17284905', 'http://www.wikidata.org/entity/Q1907692', 'http://www.wikidata.org/entity/Q1927207', 'http://www.wikidata.org/entity/Q1927514', 'http://www.wikidata.org/entity/Q19560231', 'http://www.wikidata.org/entity/Q19956337', 'http://www.wikidata.org/entity/Q19956650', 'http://www.wikidata.org/entity/Q20641558', 'http://www.wikidata.org/entity/Q20641651', 'http://www.wikidata.org/entity/Q3640619', 'http://www.wikidata.org/entity/Q372749', 'http://www.wikidata.org/entity/Q3808641', 'http://www.wikidata.org/entity/Q3903429', 'http://www.wikidata.org/entity/Q4320324', 'http://www.wikidata.org/entity/Q4576036', 'http://www.wikidata.org/entity/Q47501255', 'http://www.wikidata.org/entity/Q4831692', 'http://www.wikidata.org/entity/Q4965405', 'http://www.wikidata.org/entity/Q5080928', 'http://www.wikidata.org/entity/Q5082378', 'http://www.wikidata.org/entity/Q5171387', 'http://www.wikidata.org/entity/Q5218912', 'http://www.wikidata.org/entity/Q5258750', 'http://www.wikidata.org/entity/Q5342530', 'http://www.wikidata.org/entity/Q5369048', 'http://www.wikidata.org/entity/Q5387450', 'http://www.wikidata.org/entity/Q54667230', 'http://www.wikidata.org/entity/Q56600130', 'http://www.wikidata.org/entity/Q57262270', 'http://www.wikidata.org/entity/Q5981460', 'http://www.wikidata.org/entity/Q6185765', 'http://www.wikidata.org/entity/Q6185783', 'http://www.wikidata.org/entity/Q6199667', 'http://www.wikidata.org/entity/Q6209096', 'http://www.wikidata.org/entity/Q6228011', 'http://www.wikidata.org/entity/Q62512800', 'http://www.wikidata.org/entity/Q6273795', 'http://www.wikidata.org/entity/Q6284402', 'http://www.wikidata.org/entity/Q6437934', 'http://www.wikidata.org/entity/Q6554673', 'http://www.wikidata.org/entity/Q6668992', 'http://www.wikidata.org/entity/Q66827884', 'http://www.wikidata.org/entity/Q66841118', 'http://www.wikidata.org/entity/Q66939442', 'http://www.wikidata.org/entity/Q6764669', 'http://www.wikidata.org/entity/Q6775566', 'http://www.wikidata.org/entity/Q6776550', 'http://www.wikidata.org/entity/Q71035154', 'http://www.wikidata.org/entity/Q7197493', 'http://www.wikidata.org/entity/Q7279212', 'http://www.wikidata.org/entity/Q7308644', 'http://www.wikidata.org/entity/Q7406948', 'http://www.wikidata.org/entity/Q75135779', 'http://www.wikidata.org/entity/Q8742822', 'http://www.wikidata.org/entity/Q93318464', 'http://www.wikidata.org/entity/Q93318466', 'http://www.wikidata.org/entity/Q98785910', 'http://www.wikidata.org/entity/Q98852975', 'http://www.wikidata.org/entity/Q98930910', 'http://www.wikidata.org/entity/Q98930945']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q1009 wdt:P36 ?uri }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }</t>
+  </si>
+  <si>
+    <t>['1487']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q159. } UNION { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q15180. }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 325,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT ?business WHERE { wd:Q22686 dbo:owner ?business. }",\n        "startIndex": 325,\n        "stopIndex": 333\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; PREFIX wikibase: &lt;http://wikiba.se/ontology#&gt; PREFIX p: &lt;http://www.wikidata.org/prop/&gt; PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt; PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt; SELECT ?business WHERE { wd:Q22686 dbo:owner ?business. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 73,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q159. } UNION { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q15180. }",\n        "startIndex": 371,\n        "stopIndex": 375\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nSELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q159. } UNION { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q15180. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator WHERE { wd:Q11617 wdt:P170 ?creator }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?population WHERE { wd:Q1494 wdt:P1082 ?population }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator ?creatorLabel WHERE { wd:Q8322 wdt:P170 ?creator . SERVICE wikibase:label { bd:serviceParam wikibase:language "[AUTO_LANGUAGE],en". } }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P26 wd:Q39624. }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P26 wd:Q39624. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 180,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator ?creatorLabel WHERE { wd:Q8322 wdt:P170 ?creator . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 478,\n        "stopIndex": 491\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator ?creatorLabel WHERE { wd:Q8322 wdt:P170 ?creator . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 dbo:capital ?x . ?x wdt:P1082 ?num . }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 140,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q877 dbo:P1082 ?population }",\n        "startIndex": 140,\n        "stopIndex": 148\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?population WHERE { wd:Q877 dbo:P1082 ?population }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 133,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 dbo:capital ?x . ?x wdt:P1082 ?num . }",\n        "startIndex": 431,\n        "stopIndex": 441\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 dbo:capital ?x . ?x wdt:P1082 ?num . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1197 dbo:areaTotal ?tarea }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 136,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q12769 dbt:P569 ?date }",\n        "startIndex": 136,\n        "stopIndex": 143\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?date WHERE { wd:Q12769 dbt:P569 ?date }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 127,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1197 dbo:areaTotal ?tarea }",\n        "startIndex": 425,\n        "stopIndex": 437\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1197 dbo:areaTotal ?tarea }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?number WHERE { wd:Q37156 p:P1128 ?statement. ?statement ps:P1128 ?number. }</t>
+  </si>
+  <si>
+    <t>['350600', '352600', '377757', '380000']</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?n WHERE { wd:Q165665 wdt:P2130 ?n }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424. ?uri wdt:P161 wd:Q216884. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P495 wd:Q35 . }</t>
+  </si>
+  <si>
+    <t>['http://www.wikidata.org/entity/Q100165776', 'http://www.wikidata.org/entity/Q100699368', 'http://www.wikidata.org/entity/Q101208716', 'http://www.wikidata.org/entity/Q101240388', 'http://www.wikidata.org/entity/Q1016657', 'http://www.wikidata.org/entity/Q101799929', 'http://www.wikidata.org/entity/Q1018491', 'http://www.wikidata.org/entity/Q10263747', 'http://www.wikidata.org/entity/Q10265027', 'http://www.wikidata.org/entity/Q1029748', 'http://www.wikidata.org/entity/Q10399295', 'http://www.wikidata.org/entity/Q104212872', 'http://www.wikidata.org/entity/Q10424655', 'http://www.wikidata.org/entity/Q10427794', 'http://www.wikidata.org/entity/Q10438507', 'http://www.wikidata.org/entity/Q104423070', 'http://www.wikidata.org/entity/Q10470137', 'http://www.wikidata.org/entity/Q10478647', 'http://www.wikidata.org/entity/Q104830609', 'http://www.wikidata.org/entity/Q10483276', 'http://www.wikidata.org/entity/Q10483278', 'http://www.wikidata.org/entity/Q104897335', 'http://www.wikidata.org/entity/Q104898332', 'http://www.wikidata.org/entity/Q104898349', 'http://www.wikidata.org/entity/Q10497055', 'http://www.wikidata.org/entity/Q10498919', 'http://www.wikidata.org/entity/Q10521846', 'http://www.wikidata.org/entity/Q1052389', 'http://www.wikidata.org/entity/Q10539208', 'http://www.wikidata.org/entity/Q10540694', 'http://www.wikidata.org/entity/Q10545976', 'http://www.wikidata.org/entity/Q10546459', 'http://www.wikidata.org/entity/Q10550108', 'http://www.wikidata.org/entity/Q10551144', 'http://www.wikidata.org/entity/Q10551800', 'http://www.wikidata.org/entity/Q10552257', 'http://www.wikidata.org/entity/Q105658120', 'http://www.wikidata.org/entity/Q10568431', 'http://www.wikidata.org/entity/Q10576347', 'http://www.wikidata.org/entity/Q1058095', 'http://www.wikidata.org/entity/Q10581740', 'http://www.wikidata.org/entity/Q1058578', 'http://www.wikidata.org/entity/Q105977832', 'http://www.wikidata.org/entity/Q105977836', 'http://www.wikidata.org/entity/Q105977866', 'http://www.wikidata.org/entity/Q10611490', 'http://www.wikidata.org/entity/Q10623223', 'http://www.wikidata.org/entity/Q10636269', 'http://www.wikidata.org/entity/Q10639468', 'http://www.wikidata.org/entity/Q10657971', 'http://www.wikidata.org/entity/Q10658192', 'http://www.wikidata.org/entity/Q106595791', 'http://www.wikidata.org/entity/Q106595920', 'http://www.wikidata.org/entity/Q106595928', 'http://www.wikidata.org/entity/Q106595937', 'http://www.wikidata.org/entity/Q106595945', 'http://www.wikidata.org/entity/Q106595954', 'http://www.wikidata.org/entity/Q106595963', 'http://www.wikidata.org/entity/Q10668100', 'http://www.wikidata.org/entity/Q106685309', 'http://www.wikidata.org/entity/Q10680375', 'http://www.wikidata.org/entity/Q10684386', 'http://www.wikidata.org/entity/Q10706553', 'http://www.wikidata.org/entity/Q107089587', 'http://www.wikidata.org/entity/Q10709353', 'http://www.wikidata.org/entity/Q107112059', 'http://www.wikidata.org/entity/Q10712726', 'http://www.wikidata.org/entity/Q10713122', 'http://www.wikidata.org/entity/Q107293417', 'http://www.wikidata.org/entity/Q1073856', 'http://www.wikidata.org/entity/Q107607703', 'http://www.wikidata.org/entity/Q10766854', 'http://www.wikidata.org/entity/Q108004917', 'http://www.wikidata.org/entity/Q108084314', 'http://www.wikidata.org/entity/Q108293356', 'http://www.wikidata.org/entity/Q10860196', 'http://www.wikidata.org/entity/Q108605363', 'http://www.wikidata.org/entity/Q10862359', 'http://www.wikidata.org/entity/Q10862557', 'http://www.wikidata.org/entity/Q108744469', 'http://www.wikidata.org/entity/Q108919301', 'http://www.wikidata.org/entity/Q1090737', 'http://www.wikidata.org/entity/Q109538749', 'http://www.wikidata.org/entity/Q109556784', 'http://www.wikidata.org/entity/Q109587838', 'http://www.wikidata.org/entity/Q109729135', 'http://www.wikidata.org/entity/Q110033838', 'http://www.wikidata.org/entity/Q110040047', 'http://www.wikidata.org/entity/Q110323699', 'http://www.wikidata.org/entity/Q1103638', 'http://www.wikidata.org/entity/Q110365', 'http://www.wikidata.org/entity/Q110613399', 'http://www.wikidata.org/entity/Q110651456', 'http://www.wikidata.org/entity/Q1106764', 'http://www.wikidata.org/entity/Q110726232', 'http://www.wikidata.org/entity/Q110892400', 'http://www.wikidata.org/entity/Q111043036', 'http://www.wikidata.org/entity/Q111309399', 'http://www.wikidata.org/entity/Q111309402', 'http://www.wikidata.org/entity/Q111309418', 'http://www.wikidata.org/entity/Q111309419', 'http://www.wikidata.org/entity/Q111309435', 'http://www.wikidata.org/entity/Q111309437', 'http://www.wikidata.org/entity/Q111309446', 'http://www.wikidata.org/entity/Q111309449', 'http://www.wikidata.org/entity/Q111309452', 'http://www.wikidata.org/entity/Q111309470', 'http://www.wikidata.org/entity/Q111309481', 'http://www.wikidata.org/entity/Q111309486', 'http://www.wikidata.org/entity/Q111530750', 'http://www.wikidata.org/entity/Q111600223', 'http://www.wikidata.org/entity/Q111667985', 'http://www.wikidata.org/entity/Q111905529', 'http://www.wikidata.org/entity/Q111985803', 'http://www.wikidata.org/entity/Q112034047', 'http://www.wikidata.org/entity/Q112133367', 'http://www.wikidata.org/entity/Q1126097', 'http://www.wikidata.org/entity/Q1127630', 'http://www.wikidata.org/entity/Q112869060', 'http://www.wikidata.org/entity/Q112977212', 'http://www.wikidata.org/entity/Q113362750', 'http://www.wikidata.org/entity/Q1134037', 'http://www.wikidata.org/entity/Q113446650', 'http://www.wikidata.org/entity/Q113487140', 'http://www.wikidata.org/entity/Q113679841', 'http://www.wikidata.org/entity/Q113731765', 'http://www.wikidata.org/entity/Q11394785', 'http://www.wikidata.org/entity/Q1141731', 'http://www.wikidata.org/entity/Q1142950', 'http://www.wikidata.org/entity/Q114456172', 'http://www.wikidata.org/entity/Q114687415', 'http://www.wikidata.org/entity/Q114730010', 'http://www.wikidata.org/entity/Q114958631', 'http://www.wikidata.org/entity/Q115162773', 'http://www.wikidata.org/entity/Q115206376', 'http://www.wikidata.org/entity/Q115242546', 'http://www.wikidata.org/entity/Q115269607', 'http://www.wikidata.org/entity/Q115323752', 'http://www.wikidata.org/entity/Q115739625', 'http://www.wikidata.org/entity/Q115751588', 'http://www.wikidata.org/entity/Q115942832', 'http://www.wikidata.org/entity/Q116141774', 'http://www.wikidata.org/entity/Q116141777', 'http://www.wikidata.org/entity/Q116141779', 'http://www.wikidata.org/entity/Q116141782', 'http://www.wikidata.org/entity/Q116141790', 'http://www.wikidata.org/entity/Q116141792', 'http://www.wikidata.org/entity/Q116141794', 'http://www.wikidata.org/entity/Q116141797', 'http://www.wikidata.org/entity/Q116141803', 'http://www.wikidata.org/entity/Q116141827', 'http://www.wikidata.org/entity/Q116141830', 'http://www.wikidata.org/entity/Q116141831', 'http://www.wikidata.org/entity/Q116141832', 'http://www.wikidata.org/entity/Q116141833', 'http://www.wikidata.org/entity/Q116141834', 'http://www.wikidata.org/entity/Q116141836', 'http://www.wikidata.org/entity/Q116141838', 'http://www.wikidata.org/entity/Q116141839', 'http://www.wikidata.org/entity/Q116141845', 'http://www.wikidata.org/entity/Q116141846', 'http://www.wikidata.org/entity/Q116141853', 'http://www.wikidata.org/entity/Q116141854', 'http://www.wikidata.org/entity/Q116141866', 'http://www.wikidata.org/entity/Q116141868', 'http://www.wikidata.org/entity/Q116141869', 'http://www.wikidata.org/entity/Q116141871', 'http://www.wikidata.org/entity/Q116141872', 'http://www.wikidata.org/entity/Q116141873', 'http://www.wikidata.org/entity/Q116141874', 'http://www.wikidata.org/entity/Q116141899', 'http://www.wikidata.org/entity/Q116141904', 'http://www.wikidata.org/entity/Q116141906', 'http://www.wikidata.org/entity/Q116141909', 'http://www.wikidata.org/entity/Q116141910', 'http://www.wikidata.org/entity/Q116141911', 'http://www.wikidata.org/entity/Q116327000', 'http://www.wikidata.org/entity/Q116385276', 'http://www.wikidata.org/entity/Q1165090', 'http://www.wikidata.org/entity/Q116678683', 'http://www.wikidata.org/entity/Q116687153', 'http://www.wikidata.org/entity/Q1167202', 'http://www.wikidata.org/entity/Q116868452', 'http://www.wikidata.org/entity/Q116923177', 'http://www.wikidata.org/entity/Q117310836', 'http://www.wikidata.org/entity/Q117310838', 'http://www.wikidata.org/entity/Q117310839', 'http://www.wikidata.org/entity/Q117310840', 'http://www.wikidata.org/entity/Q117310841', 'http://www.wikidata.org/entity/Q117310842', 'http://www.wikidata.org/entity/Q117310844', 'http://www.wikidata.org/entity/Q117310845', 'http://www.wikidata.org/entity/Q117310846', 'http://www.wikidata.org/entity/Q117310847', 'http://www.wikidata.org/entity/Q117310848', 'http://www.wikidata.org/entity/Q117310849', 'http://www.wikidata.org/entity/Q117310851', 'http://www.wikidata.org/entity/Q117310852', 'http://www.wikidata.org/entity/Q117310853', 'http://www.wikidata.org/entity/Q117310854', 'http://www.wikidata.org/entity/Q117310855', 'http://www.wikidata.org/entity/Q117310856', 'http://www.wikidata.org/entity/Q117310857', 'http://www.wikidata.org/entity/Q117310859', 'http://www.wikidata.org/entity/Q117310861', 'http://www.wikidata.org/entity/Q117310862', 'http://www.wikidata.org/entity/Q117310863', 'http://www.wikidata.org/entity/Q117310864', 'http://www.wikidata.org/entity/Q117310865', 'http://www.wikidata.org/entity/Q117310866', 'http://www.wikidata.org/entity/Q117310868', 'http://www.wikidata.org/entity/Q117310869', 'http://www.wikidata.org/entity/Q117310870', 'http://www.wikidata.org/entity/Q117310871', 'http://www.wikidata.org/entity/Q117310873', 'http://www.wikidata.org/entity/Q117310874', 'http://www.wikidata.org/entity/Q117310876', 'http://www.wikidata.org/entity/Q117310877', 'http://www.wikidata.org/entity/Q117310878', 'http://www.wikidata.org/entity/Q117310879', 'http://www.wikidata.org/entity/Q117310881', 'http://www.wikidata.org/entity/Q117310882', 'http://www.wikidata.org/entity/Q117310883', 'http://www.wikidata.org/entity/Q117310884', 'http://www.wikidata.org/entity/Q117310885', 'http://www.wikidata.org/entity/Q117310886', 'http://www.wikidata.org/entity/Q117310888', 'http://www.wikidata.org/entity/Q117310889', 'http://www.wikidata.org/entity/Q117310890', 'http://www.wikidata.org/entity/Q117310891', 'http://www.wikidata.org/entity/Q117310892', 'http://www.wikidata.org/entity/Q117310894', 'http://www.wikidata.org/entity/Q117310895', 'http://www.wikidata.org/entity/Q117310896', 'http://www.wikidata.org/entity/Q117310897', 'http://www.wikidata.org/entity/Q117310899', 'http://www.wikidata.org/entity/Q117310900', 'http://www.wikidata.org/entity/Q117310901', 'http://www.wikidata.org/entity/Q117310902', 'http://www.wikidata.org/entity/Q117310903', 'http://www.wikidata.org/entity/Q117310905', 'http://www.wikidata.org/entity/Q117310906', 'http://www.wikidata.org/entity/Q117310907', 'http://www.wikidata.org/entity/Q117310908', 'http://www.wikidata.org/entity/Q117310909', 'http://www.wikidata.org/entity/Q117310910', 'http://www.wikidata.org/entity/Q117310911', 'http://www.wikidata.org/entity/Q117310912', 'http://www.wikidata.org/entity/Q117310913', 'http://www.wikidata.org/entity/Q117310914', 'http://www.wikidata.org/entity/Q117310915', 'http://www.wikidata.org/entity/Q117310916', 'http://www.wikidata.org/entity/Q117310917', 'http://www.wikidata.org/entity/Q117310918', 'http://www.wikidata.org/entity/Q117310920', 'http://www.wikidata.org/entity/Q117310921', 'http://www.wikidata.org/entity/Q117310922', 'http://www.wikidata.org/entity/Q117310923', 'http://www.wikidata.org/entity/Q117310924', 'http://www.wikidata.org/entity/Q117310925', 'http://www.wikidata.org/entity/Q117310927', 'http://www.wikidata.org/entity/Q117310928', 'http://www.wikidata.org/entity/Q117310929', 'http://www.wikidata.org/entity/Q117310930', 'http://www.wikidata.org/entity/Q117310931', 'http://www.wikidata.org/entity/Q117310932', 'http://www.wikidata.org/entity/Q117310934', 'http://www.wikidata.org/entity/Q117310935', 'http://www.wikidata.org/entity/Q117310936', 'http://www.wikidata.org/entity/Q117310937', 'http://www.wikidata.org/entity/Q117310938', 'http://www.wikidata.org/entity/Q117310940', 'http://www.wikidata.org/entity/Q117310941', 'http://www.wikidata.org/entity/Q117310942', 'http://www.wikidata.org/entity/Q117310943', 'http://www.wikidata.org/entity/Q117310944', 'http://www.wikidata.org/entity/Q117310947', 'http://www.wikidata.org/entity/Q117310948', 'http://www.wikidata.org/entity/Q117310949', 'http://www.wikidata.org/entity/Q117310951', 'http://www.wikidata.org/entity/Q117310952', 'http://www.wikidata.org/entity/Q117310953', 'http://www.wikidata.org/entity/Q117310954', 'http://www.wikidata.org/entity/Q117310956', 'http://www.wikidata.org/entity/Q117310957', 'http://www.wikidata.org/entity/Q117310958', 'http://www.wikidata.org/entity/Q117310959', 'http://www.wikidata.org/entity/Q117310960', 'http://www.wikidata.org/entity/Q117310962', 'http://www.wikidata.org/entity/Q117310963', 'http://www.wikidata.org/entity/Q117310964', 'http://www.wikidata.org/entity/Q117310965', 'http://www.wikidata.org/entity/Q117310968', 'http://www.wikidata.org/entity/Q117310969', 'http://www.wikidata.org/entity/Q117310970', 'http://www.wikidata.org/entity/Q117310971', 'http://www.wikidata.org/entity/Q117310972', 'http://www.wikidata.org/entity/Q117310974', 'http://www.wikidata.org/entity/Q117310976', 'http://www.wikidata.org/entity/Q117310977', 'http://www.wikidata.org/entity/Q117310978', 'http://www.wikidata.org/entity/Q117310979', 'http://www.wikidata.org/entity/Q117310981', 'http://www.wikidata.org/entity/Q117310982', 'http://www.wikidata.org/entity/Q117310983', 'http://www.wikidata.org/entity/Q117310984', 'http://www.wikidata.org/entity/Q117310985', 'http://www.wikidata.org/entity/Q117310987', 'http://www.wikidata.org/entity/Q117310988', 'http://www.wikidata.org/entity/Q117310989', 'http://www.wikidata.org/entity/Q117310990', 'http://www.wikidata.org/entity/Q117310991', 'http://www.wikidata.org/entity/Q117310992', 'http://www.wikidata.org/entity/Q117310993', 'http://www.wikidata.org/entity/Q117310995', 'http://www.wikidata.org/entity/Q117310996', 'http://www.wikidata.org/entity/Q117310997', 'http://www.wikidata.org/entity/Q117310998', 'http://www.wikidata.org/entity/Q117310999', 'http://www.wikidata.org/entity/Q117311000', 'http://www.wikidata.org/entity/Q117311002', 'http://www.wikidata.org/entity/Q117311003', 'http://www.wikidata.org/entity/Q117311004', 'http://www.wikidata.org/entity/Q117311005', 'http://www.wikidata.org/entity/Q117311006', 'http://www.wikidata.org/entity/Q117311007', 'http://www.wikidata.org/entity/Q117311009', 'http://www.wikidata.org/entity/Q117311010', 'http://www.wikidata.org/entity/Q117311011', 'http://www.wikidata.org/entity/Q117311012', 'http://www.wikidata.org/entity/Q117311014', 'http://www.wikidata.org/entity/Q117311016', 'http://www.wikidata.org/entity/Q117311017', 'http://www.wikidata.org/entity/Q117311018', 'http://www.wikidata.org/entity/Q117311019', 'http://www.wikidata.org/entity/Q117311020', 'http://www.wikidata.org/entity/Q117311022', 'http://www.wikidata.org/entity/Q117311023', 'http://www.wikidata.org/entity/Q117311024', 'http://www.wikidata.org/entity/Q117311025', 'http://www.wikidata.org/entity/Q117311026', 'http://www.wikidata.org/entity/Q117311027', 'http://www.wikidata.org/entity/Q117311028', 'http://www.wikidata.org/entity/Q117311029', 'http://www.wikidata.org/entity/Q117311031', 'http://www.wikidata.org/entity/Q117311033', 'http://www.wikidata.org/entity/Q117311035', 'http://www.wikidata.org/entity/Q117311036', 'http://www.wikidata.org/entity/Q117311037', 'http://www.wikidata.org/entity/Q117311038', 'http://www.wikidata.org/entity/Q117311039', 'http://www.wikidata.org/entity/Q117311041', 'http://www.wikidata.org/entity/Q117311042', 'http://www.wikidata.org/entity/Q117311043', 'http://www.wikidata.org/entity/Q117311044', 'http://www.wikidata.org/entity/Q117311045', 'http://www.wikidata.org/entity/Q117311047', 'http://www.wikidata.org/entity/Q117311048', 'http://www.wikidata.org/entity/Q117311049', 'http://www.wikidata.org/entity/Q117311051', 'http://www.wikidata.org/entity/Q117311053', 'http://www.wikidata.org/entity/Q117311054', 'http://www.wikidata.org/entity/Q117311055', 'http://www.wikidata.org/entity/Q117311056', 'http://www.wikidata.org/entity/Q117311057', 'http://www.wikidata.org/entity/Q117311059', 'http://www.wikidata.org/entity/Q117311060', 'http://www.wikidata.org/entity/Q117311061', 'http://www.wikidata.org/entity/Q117311062', 'http://www.wikidata.org/entity/Q117311063', 'http://www.wikidata.org/entity/Q117311065', 'http://www.wikidata.org/entity/Q117311066', 'http://www.wikidata.org/entity/Q117311067', 'http://www.wikidata.org/entity/Q117311068', 'http://www.wikidata.org/entity/Q117311069', 'http://www.wikidata.org/entity/Q117311070', 'http://www.wikidata.org/entity/Q117311072', 'http://www.wikidata.org/entity/Q117311073', 'http://www.wikidata.org/entity/Q117311074', 'http://www.wikidata.org/entity/Q117311075', 'http://www.wikidata.org/entity/Q117311076', 'http://www.wikidata.org/entity/Q117311077', 'http://www.wikidata.org/entity/Q117311079', 'http://www.wikidata.org/entity/Q117311080', 'http://www.wikidata.org/entity/Q117311081', 'http://www.wikidata.org/entity/Q117311082', 'http://www.wikidata.org/entity/Q117311083', 'http://www.wikidata.org/entity/Q117311085', 'http://www.wikidata.org/entity/Q117311086', 'http://www.wikidata.org/entity/Q117311087', 'http://www.wikidata.org/entity/Q117311088', 'http://www.wikidata.org/entity/Q117311089', 'http://www.wikidata.org/entity/Q117311090', 'http://www.wikidata.org/entity/Q117311091', 'http://www.wikidata.org/entity/Q117311092', 'http://www.wikidata.org/entity/Q117311093', 'http://www.wikidata.org/entity/Q117311095', 'http://www.wikidata.org/entity/Q117311096', 'http://www.wikidata.org/entity/Q117311097', 'http://www.wikidata.org/entity/Q117311098', 'http://www.wikidata.org/entity/Q117311099', 'http://www.wikidata.org/entity/Q117311100', 'http://www.wikidata.org/entity/Q117311101', 'http://www.wikidata.org/entity/Q117311102', 'http://www.wikidata.org/entity/Q117311103', 'http://www.wikidata.org/entity/Q117311104', 'http://www.wikidata.org/entity/Q117311106', 'http://www.wikidata.org/entity/Q117311107', 'http://www.wikidata.org/entity/Q117311108', 'http://www.wikidata.org/entity/Q117311109', 'http://www.wikidata.org/entity/Q117311110', 'http://www.wikidata.org/entity/Q117311111', 'http://www.wikidata.org/entity/Q117311112', 'http://www.wikidata.org/entity/Q117311113', 'http://www.wikidata.org/entity/Q117311114', 'http://www.wikidata.org/entity/Q117311115', 'http://www.wikidata.org/entity/Q117311116', 'http://www.wikidata.org/entity/Q117311117', 'http://www.wikidata.org/entity/Q117311118', 'http://www.wikidata.org/entity/Q117311119', 'http://www.wikidata.org/entity/Q117311120', 'http://www.wikidata.org/entity/Q117311121', 'http://www.wikidata.org/entity/Q117311122', 'http://www.wikidata.org/entity/Q117311123', 'http://www.wikidata.org/entity/Q117311124', 'http://www.wikidata.org/entity/Q117311125', 'http://www.wikidata.org/entity/Q117311126', 'http://www.wikidata.org/entity/Q117311127', 'http://www.wikidata.org/entity/Q117311128', 'http://www.wikidata.org/entity/Q117311129', 'http://www.wikidata.org/entity/Q117311130', 'http://www.wikidata.org/entity/Q117311131', 'http://www.wikidata.org/entity/Q117311132', 'http://www.wikidata.org/entity/Q117311133', 'http://www.wikidata.org/entity/Q117311134', 'http://www.wikidata.org/entity/Q117311135', 'http://www.wikidata.org/entity/Q117311136', 'http://www.wikidata.org/entity/Q117311137', 'http://www.wikidata.org/entity/Q117311138', 'http://www.wikidata.org/entity/Q117311139', 'http://www.wikidata.org/entity/Q117311140', 'http://www.wikidata.org/entity/Q117311141', 'http://www.wikidata.org/entity/Q117311142', 'http://www.wikidata.org/entity/Q117311143', 'http://www.wikidata.org/entity/Q117311144', 'http://www.wikidata.org/entity/Q117311145', 'http://www.wikidata.org/entity/Q117311146', 'http://www.wikidata.org/entity/Q117311147', 'http://www.wikidata.org/entity/Q117311148', 'http://www.wikidata.org/entity/Q117311149', 'http://www.wikidata.org/entity/Q117311150', 'http://www.wikidata.org/entity/Q117311152', 'http://www.wikidata.org/entity/Q117311153', 'http://www.wikidata.org/entity/Q117311156', 'http://www.wikidata.org/entity/Q117311157', 'http://www.wikidata.org/entity/Q117311159', 'http://www.wikidata.org/entity/Q117311160', 'http://www.wikidata.org/entity/Q117311161', 'http://www.wikidata.org/entity/Q117311162', 'http://www.wikidata.org/entity/Q117311163', 'http://www.wikidata.org/entity/Q117311164', 'http://www.wikidata.org/entity/Q117311165', 'http://www.wikidata.org/entity/Q117311166', 'http://www.wikidata.org/entity/Q117311167', 'http://www.wikidata.org/entity/Q117311169', 'http://www.wikidata.org/entity/Q117311170', 'http://www.wikidata.org/entity/Q117311171', 'http://www.wikidata.org/entity/Q117311172', 'http://www.wikidata.org/entity/Q117311174', 'http://www.wikidata.org/entity/Q117311175', 'http://www.wikidata.org/entity/Q117311176', 'http://www.wikidata.org/entity/Q117311177', 'http://www.wikidata.org/entity/Q117311178', 'http://www.wikidata.org/entity/Q117311179', 'http://www.wikidata.org/entity/Q117311180', 'http://www.wikidata.org/entity/Q117311181', 'http://www.wikidata.org/entity/Q117311182', 'http://www.wikidata.org/entity/Q117311183', 'http://www.wikidata.org/entity/Q117311184', 'http://www.wikidata.org/entity/Q117311185', 'http://www.wikidata.org/entity/Q117311187', 'http://www.wikidata.org/entity/Q117311188', 'http://www.wikidata.org/entity/Q117311189', 'http://www.wikidata.org/entity/Q117311190', 'http://www.wikidata.org/entity/Q117311191', 'http://www.wikidata.org/entity/Q117311192', 'http://www.wikidata.org/entity/Q117311193', 'http://www.wikidata.org/entity/Q117311194', 'http://www.wikidata.org/entity/Q117311195', 'http://www.wikidata.org/entity/Q117311197', 'http://www.wikidata.org/entity/Q117311198', 'http://www.wikidata.org/entity/Q11735883', 'http://www.wikidata.org/entity/Q117378', 'http://www.wikidata.org/entity/Q11750103', 'http://www.wikidata.org/entity/Q11752161', 'http://www.wikidata.org/entity/Q11766799', 'http://www.wikidata.org/entity/Q117828841', 'http://www.wikidata.org/entity/Q117839902', 'http://www.wikidata.org/entity/Q117843336', 'http://www.wikidata.org/entity/Q1179100', 'http://www.wikidata.org/entity/Q1180628', 'http://www.wikidata.org/entity/Q11813146', 'http://www.wikidata.org/entity/Q118773870', 'http://www.wikidata.org/entity/Q118877515', 'http://www.wikidata.org/entity/Q11895713', 'http://www.wikidata.org/entity/Q1192010', 'http://www.wikidata.org/entity/Q1193228', 'http://www.wikidata.org/entity/Q1193235', 'http://www.wikidata.org/entity/Q1193606', 'http://www.wikidata.org/entity/Q11959981', 'http://www.wikidata.org/entity/Q11963321', 'http://www.wikidata.org/entity/Q11968504', 'http://www.wikidata.org/entity/Q119719693', 'http://www.wikidata.org/entity/Q11973255', 'http://www.wikidata.org/entity/Q11975896', 'http://www.wikidata.org/entity/Q11976727', 'http://www.wikidata.org/entity/Q11989359', 'http://www.wikidata.org/entity/Q11991849', 'http://www.wikidata.org/entity/Q11992822', 'http://www.wikidata.org/entity/Q12000812', 'http://www.wikidata.org/entity/Q12001708', 'http://www.wikidata.org/entity/Q12001773', 'http://www.wikidata.org/entity/Q12005098', 'http://www.wikidata.org/entity/Q12008450', 'http://www.wikidata.org/entity/Q12021405', 'http://www.wikidata.org/entity/Q120476405', 'http://www.wikidata.org/entity/Q120892325', 'http://www.wikidata.org/entity/Q12112241', 'http://www.wikidata.org/entity/Q1212397', 'http://www.wikidata.org/entity/Q121268638', 'http://www.wikidata.org/entity/Q121268641', 'http://www.wikidata.org/entity/Q121268646', 'http://www.wikidata.org/entity/Q121268647', 'http://www.wikidata.org/entity/Q121268650', 'http://www.wikidata.org/entity/Q121268661', 'http://www.wikidata.org/entity/Q121268664', 'http://www.wikidata.org/entity/Q121268669', 'http://www.wikidata.org/entity/Q121268679', 'http://www.wikidata.org/entity/Q121268680', 'http://www.wikidata.org/entity/Q121268682', 'http://www.wikidata.org/entity/Q121268686', 'http://www.wikidata.org/entity/Q121268699', 'http://www.wikidata.org/entity/Q121268702', 'http://www.wikidata.org/entity/Q121268704', 'http://www.wikidata.org/entity/Q121302517', 'http://www.wikidata.org/entity/Q121302518', 'http://www.wikidata.org/entity/Q121302519', 'http://www.wikidata.org/entity/Q121302520', 'http://www.wikidata.org/entity/Q121302521', 'http://www.wikidata.org/entity/Q121302522', 'http://www.wikidata.org/entity/Q121302523', 'http://www.wikidata.org/entity/Q121302524', 'http://www.wikidata.org/entity/Q121302526', 'http://www.wikidata.org/entity/Q121302527', 'http://www.wikidata.org/entity/Q121302528', 'http://www.wikidata.org/entity/Q121302529', 'http://www.wikidata.org/entity/Q121302530', 'http://www.wikidata.org/entity/Q121302531', 'http://www.wikidata.org/entity/Q121302533', 'http://www.wikidata.org/entity/Q121302534', 'http://www.wikidata.org/entity/Q121302535', 'http://www.wikidata.org/entity/Q121302536', 'http://www.wikidata.org/entity/Q121302538', 'http://www.wikidata.org/entity/Q121302539', 'http://www.wikidata.org/entity/Q121302541', 'http://www.wikidata.org/entity/Q121302542', 'http://www.wikidata.org/entity/Q121302543', 'http://www.wikidata.org/entity/Q121302544', 'http://www.wikidata.org/entity/Q121302545', 'http://www.wikidata.org/entity/Q121302546', 'http://www.wikidata.org/entity/Q121302547', 'http://www.wikidata.org/entity/Q121302548', 'http://www.wikidata.org/entity/Q121302549', 'http://www.wikidata.org/entity/Q121302550', 'http://www.wikidata.org/entity/Q121302551', 'http://www.wikidata.org/entity/Q121302552', 'http://www.wikidata.org/entity/Q121302553', 'http://www.wikidata.org/entity/Q121302554', 'http://www.wikidata.org/entity/Q121302555', 'http://www.wikidata.org/entity/Q121302556', 'http://www.wikidata.org/entity/Q121302557', 'http://www.wikidata.org/entity/Q121302558', 'http://www.wikidata.org/entity/Q121302560', 'http://www.wikidata.org/entity/Q121302561', 'http://www.wikidata.org/entity/Q121302562', 'http://www.wikidata.org/entity/Q121302563', 'http://www.wikidata.org/entity/Q121302564', 'http://www.wikidata.org/entity/Q121302565', 'http://www.wikidata.org/entity/Q121302566', 'http://www.wikidata.org/entity/Q121302567', 'http://www.wikidata.org/entity/Q121302568', 'http://www.wikidata.org/entity/Q121302569', 'http://www.wikidata.org/entity/Q121302570', 'http://www.wikidata.org/entity/Q121302571', 'http://www.wikidata.org/entity/Q121302573', 'http://www.wikidata.org/entity/Q121302574', 'http://www.wikidata.org/entity/Q121302575', 'http://www.wikidata.org/entity/Q121302576', 'http://www.wikidata.org/entity/Q121302579', 'http://www.wikidata.org/entity/Q121302580', 'http://www.wikidata.org/entity/Q121302581', 'http://www.wikidata.org/entity/Q121302582', 'http://www.wikidata.org/entity/Q121302583', 'http://www.wikidata.org/entity/Q121302584', 'http://www.wikidata.org/entity/Q121302585', 'http://www.wikidata.org/entity/Q121302586', 'http://www.wikidata.org/entity/Q121302588', 'http://www.wikidata.org/entity/Q121302589', 'http://www.wikidata.org/entity/Q121302591', 'http://www.wikidata.org/entity/Q121302592', 'http://www.wikidata.org/entity/Q121302593', 'http://www.wikidata.org/entity/Q121302594', 'http://www.wikidata.org/entity/Q121302595', 'http://www.wikidata.org/entity/Q121302596', 'http://www.wikidata.org/entity/Q121302597', 'http://www.wikidata.org/entity/Q121302598', 'http://www.wikidata.org/entity/Q121302599', 'http://www.wikidata.org/entity/Q121302600', 'http://www.wikidata.org/entity/Q121302601', 'http://www.wikidata.org/entity/Q121302602', 'http://www.wikidata.org/entity/Q121302603', 'http://www.wikidata.org/entity/Q121302604', 'http://www.wikidata.org/entity/Q121302605', 'http://www.wikidata.org/entity/Q121302607', 'http://www.wikidata.org/entity/Q121302608', 'http://www.wikidata.org/entity/Q121302609', 'http://www.wikidata.org/entity/Q121302610', 'http://www.wikidata.org/entity/Q121302611', 'http://www.wikidata.org/entity/Q121302612', 'http://www.wikidata.org/entity/Q121302613', 'http://www.wikidata.org/entity/Q121302614', 'http://www.wikidata.org/entity/Q121302615', 'http://www.wikidata.org/entity/Q121302617', 'http://www.wikidata.org/entity/Q121302618', 'http://www.wikidata.org/entity/Q121302619', 'http://www.wikidata.org/entity/Q121302620', 'http://www.wikidata.org/entity/Q121302621', 'http://www.wikidata.org/entity/Q121302622', 'http://www.wikidata.org/entity/Q121302624', 'http://www.wikidata.org/entity/Q121302625', 'http://www.wikidata.org/entity/Q121302626', 'http://www.wikidata.org/entity/Q121302627', 'http://www.wikidata.org/entity/Q121302628', 'http://www.wikidata.org/entity/Q121302629', 'http://www.wikidata.org/entity/Q121302630', 'http://www.wikidata.org/entity/Q121302631', 'http://www.wikidata.org/entity/Q121302632', 'http://www.wikidata.org/entity/Q121302633', 'http://www.wikidata.org/entity/Q121302634', 'http://www.wikidata.org/entity/Q121302635', 'http://www.wikidata.org/entity/Q121302636', 'http://www.wikidata.org/entity/Q121302637', 'http://www.wikidata.org/entity/Q121302638', 'http://www.wikidata.org/entity/Q121302639', 'http://www.wikidata.org/entity/Q121302640', 'http://www.wikidata.org/entity/Q121302642', 'http://www.wikidata.org/entity/Q121302643', 'http://www.wikidata.org/entity/Q121302644', 'http://www.wikidata.org/entity/Q121302645', 'http://www.wikidata.org/entity/Q121302646', 'http://www.wikidata.org/entity/Q121302647', 'http://www.wikidata.org/entity/Q121302648', 'http://www.wikidata.org/entity/Q121302649', 'http://www.wikidata.org/entity/Q121302650', 'http://www.wikidata.org/entity/Q121302651', 'http://www.wikidata.org/entity/Q121302652', 'http://www.wikidata.org/entity/Q121302653', 'http://www.wikidata.org/entity/Q121302654', 'http://www.wikidata.org/entity/Q121302655', 'http://www.wikidata.org/entity/Q121302656', 'http://www.wikidata.org/entity/Q121302657', 'http://www.wikidata.org/entity/Q121302658', 'http://www.wikidata.org/entity/Q121302659', 'http://www.wikidata.org/entity/Q121302660', 'http://www.wikidata.org/entity/Q121302661', 'http://www.wikidata.org/entity/Q121302662', 'http://www.wikidata.org/entity/Q121302663', 'http://www.wikidata.org/entity/Q121302664', 'http://www.wikidata.org/entity/Q121302665', 'http://www.wikidata.org/entity/Q121302666', 'http://www.wikidata.org/entity/Q121302667', 'http://www.wikidata.org/entity/Q121302668', 'http://www.wikidata.org/entity/Q121302669', 'http://www.wikidata.org/entity/Q121302670', 'http://www.wikidata.org/entity/Q121302671', 'http://www.wikidata.org/entity/Q121302672', 'http://www.wikidata.org/entity/Q121302673', 'http://www.wikidata.org/entity/Q121302674', 'http://www.wikidata.org/entity/Q121302675', 'http://www.wikidata.org/entity/Q121302676', 'http://www.wikidata.org/entity/Q121302677', 'http://www.wikidata.org/entity/Q121302678', 'http://www.wikidata.org/entity/Q121302679', 'http://www.wikidata.org/entity/Q121302681', 'http://www.wikidata.org/entity/Q121302682', 'http://www.wikidata.org/entity/Q121302683', 'http://www.wikidata.org/entity/Q121302684', 'http://www.wikidata.org/entity/Q121302685', 'http://www.wikidata.org/entity/Q121302686', 'http://www.wikidata.org/entity/Q121302687', 'http://www.wikidata.org/entity/Q121302688', 'http://www.wikidata.org/entity/Q121302689', 'http://www.wikidata.org/entity/Q121302690', 'http://www.wikidata.org/entity/Q121302691', 'http://www.wikidata.org/entity/Q121302692', 'http://www.wikidata.org/entity/Q121302693', 'http://www.wikidata.org/entity/Q121302694', 'http://www.wikidata.org/entity/Q121302695', 'http://www.wikidata.org/entity/Q121302696', 'http://www.wikidata.org/entity/Q121302697', 'http://www.wikidata.org/entity/Q121302698', 'http://www.wikidata.org/entity/Q121302699', 'http://www.wikidata.org/entity/Q121302700', 'http://www.wikidata.org/entity/Q121302701', 'http://www.wikidata.org/entity/Q121302703', 'http://www.wikidata.org/entity/Q121302704', 'http://www.wikidata.org/entity/Q121302706', 'http://www.wikidata.org/entity/Q121302707', 'http://www.wikidata.org/entity/Q121302708', 'http://www.wikidata.org/entity/Q121302709', 'http://www.wikidata.org/entity/Q121302710', 'http://www.wikidata.org/entity/Q121302711', 'http://www.wikidata.org/entity/Q121302712', 'http://www.wikidata.org/entity/Q121302713', 'http://www.wikidata.org/entity/Q121302714', 'http://www.wikidata.org/entity/Q121302715', 'http://www.wikidata.org/entity/Q121302716', 'http://www.wikidata.org/entity/Q121302717', 'http://www.wikidata.org/entity/Q121302718', 'http://www.wikidata.org/entity/Q121302720', 'http://www.wikidata.org/entity/Q1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?country WHERE { wd:Q7270 wdt:P17 ?country. }</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q6256 ; wdt:P2046 ?n . } ORDER BY DESC(?n) LIMIT 1</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 dbt:P69 ?AlmaMater }</t>
   </si>
   <si>
     <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
 Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dct was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 128,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 dct:P1082 ?europop . }",\n        "startIndex": 128,\n        "stopIndex": 136\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?europop WHERE { wd:Q458 dct:P1082 ?europop . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q7378; wdt:P1440 wd:Q7768. }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?rocket WHERE { ?rocket wdt:P31 wd:Q7378; wdt:P1440 wd:Q7768. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?island WHERE { ?island wdt:P31 wd:Q23442; wdt:P17 wd:Q17. }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?island WHERE { ?island wdt:P31 wd:Q23442; wdt:P17 wd:Q17. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 56,\n        "query": "SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q783794. ?company wdt:P452 wd:Q1397559. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 56,\n        "stopIndex": 62\n    },\n    "query": "SELECT DISTINCT ?company ?companyLabel WHERE { ?company wdt:P31 wd:Q783794. ?company wdt:P452 wd:Q1397559. SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 140,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 dbo:almaMater ?university }",\n        "startIndex": 140,\n        "stopIndex": 152\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?university WHERE { wd:Q567 dbo:almaMater ?university }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?tvShow WHERE { ?tvShow wdt:P31 wd:Q5398426; wdt:P161 wd:Q275777. }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?tvShow WHERE { ?tvShow wdt:P31 wd:Q5398426; wdt:P161 wd:Q275777. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 38,\n        "query": "SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424; wdt:P161 wd:Q9495. }",\n        "startIndex": 38,\n        "stopIndex": 44\n    },\n    "query": "SELECT DISTINCT ?movie WHERE { ?movie wdt:P31 wd:Q11424; wdt:P161 wd:Q9495. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 29,\n        "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n        "startIndex": 29,\n        "stopIndex": 36\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { wd:Q9696 wdt:P20 ?uri. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 135,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q10935 dbo:crosses ?uri }",\n        "startIndex": 135,\n        "stopIndex": 145\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?uri WHERE { wd:Q10935 dbo:crosses ?uri }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?swimmer WHERE { ?swimmer wdt:P106 wd:Q2085389 ; wdt:P19 wd:Q649 . }",\n        "startIndex": 42,\n        "stopIndex": 49\n    },\n    "query": "SELECT DISTINCT ?swimmer WHERE { ?swimmer wdt:P106 wd:Q2085389 ; wdt:P19 wd:Q649 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q8502 ; wdt:P2044 ?elevation . } ORDER BY DESC(?elevation) OFFSET 1 LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 31,\n        "query": "SELECT DISTINCT ?genre WHERE { wd:Q188438 wdt:P136 ?genre. }",\n        "startIndex": 31,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?genre WHERE { wd:Q188438 wdt:P136 ?genre. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q14550 . ?holiday wdt:P17 wd:Q34 . }",\n        "startIndex": 42,\n        "stopIndex": 48\n    },\n    "query": "SELECT DISTINCT ?holiday WHERE { ?holiday wdt:P31 wd:Q14550 . ?holiday wdt:P17 wd:Q34 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 28,\n        "query": "SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2130 ?ni . }",\n        "startIndex": 28,\n        "stopIndex": 34\n    },\n    "query": "SELECT DISTINCT ?ni WHERE { wd:Q312 wdt:P2130 ?ni . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?capital WHERE { wd:Q7270 &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital . }",\n        "startIndex": 33,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?capital WHERE { wd:Q7270 &lt;http://www.wikidata.org/prop/direct/P17&gt; ?country . ?country &lt;http://www.wikidata.org/prop/direct/P36&gt; ?capital . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 &lt;http://www.wikidata.org/entity/Q9653&gt; ; wdt:P345 &lt;http://www.wikidata.org/entity/Q9653&gt; . }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?film WHERE { ?film wdt:P57 &lt;http://www.wikidata.org/entity/Q9653&gt; ; wdt:P345 &lt;http://www.wikidata.org/entity/Q9653&gt; . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 42,\n        "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P31 wd:Q6256. ?country wdt:P38 ?currency. ?currency wdt:P279+ wd:Q25998. }",\n        "startIndex": 42,\n        "stopIndex": 48\n    },\n    "query": "SELECT DISTINCT ?country WHERE { ?country wdt:P31 wd:Q6256. ?country wdt:P38 ?currency. ?currency wdt:P279+ wd:Q25998. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278. ?item wdt:P17 wd:Q41. ?item wdt:P1142 wd:Q1381919. }",\n        "startIndex": 36,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P31 wd:Q7278. ?item wdt:P17 wd:Q41. ?item wdt:P1142 wd:Q1381919. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 30,\n        "query": "SELECT DISTINCT ?date WHERE { wd:Q179836 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n        "startIndex": 30,\n        "stopIndex": 39\n    },\n    "query": "SELECT DISTINCT ?date WHERE { wd:Q179836 wdt:P161 ?actor . ?actor wdt:P569 ?date . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 38,\n        "query": "SELECT DISTINCT ?actor WHERE { ?actor wdt:P106 wd:Q33999; wdt:P19 wd:Q183. }",\n        "startIndex": 38,\n        "stopIndex": 45\n    },\n    "query": "SELECT DISTINCT ?actor WHERE { ?actor wdt:P106 wd:Q33999; wdt:P19 wd:Q183. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?person WHERE { ?person wdt:P19 wd:Q1741; wdt:P20 wd:Q64. }",\n        "startIndex": 40,\n        "stopIndex": 46\n    },\n    "query": "SELECT DISTINCT ?person WHERE { ?person wdt:P19 wd:Q1741; wdt:P20 wd:Q64. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280; wdt:P159 wd:Q1282. }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q12280; wdt:P159 wd:Q1282. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) LIMIT 1",\n        "startIndex": 34,\n        "stopIndex": 41\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P106 wd:Q639669 . ?x wdt:P50 ?uri . ?x wdt:P31 wd:Q571 . } ORDER BY DESC(COUNT(?x)) LIMIT 1",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5398426 ; wdt:P170 wd:Q61358 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q5398426 ; wdt:P170 wd:Q61358 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P106 wd:Q36180 ; wdt:P166 wd:Q57907 . }",\n        "startIndex": 40,\n        "stopIndex": 47\n    },\n    "query": "SELECT DISTINCT ?writer WHERE { ?writer wdt:P106 wd:Q36180 ; wdt:P166 wd:Q57907 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dct was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 140,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q938 dct:discoverer ?discoverer. }",\n        "startIndex": 140,\n        "stopIndex": 153\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?discoverer WHERE { wd:Q938 dct:discoverer ?discoverer. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q488205; wdt:P1303 wd:Q12513. }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q488205; wdt:P1303 wd:Q12513. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 40,\n        "query": "SELECT DISTINCT ?player WHERE { ?player wdt:P106 wd:Q3665646. ?player wdt:P2048 ?height. FILTER (?height &gt; 200) }",\n        "startIndex": 40,\n        "stopIndex": 47\n    },\n    "query": "SELECT DISTINCT ?player WHERE { ?player wdt:P106 wd:Q3665646. ?player wdt:P2048 ?height. FILTER (?height &gt; 200) }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 36,\n        "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 . }",\n        "startIndex": 36,\n        "stopIndex": 43\n    },\n    "query": "SELECT DISTINCT ?item WHERE { ?item wdt:P106 wd:Q937857 ; wdt:P19 wd:Q233 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 49,\n        "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n        "startIndex": 49,\n        "stopIndex": 55\n    },\n    "query": "SELECT (COUNT(DISTINCT ?uri) AS ?c) WHERE { ?uri wdt:P31 wd:Q9143 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Token \\"UNION\\": mismatched input \'UNION\' expecting &lt;EOF&gt;",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 73,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q159. } UNION { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q15180. }",\n        "startIndex": 73,\n        "stopIndex": 77\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q159. } UNION { ?uri wdt:P31 wd:Q488111; wdt:P27 wd:Q15180. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wikibase was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 180,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator ?creatorLabel WHERE { wd:Q8322 wdt:P170 ?creator . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n        "startIndex": 180,\n        "stopIndex": 193\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?creator ?creatorLabel WHERE { wd:Q8322 wdt:P170 ?creator . SERVICE wikibase:label { bd:serviceParam wikibase:language \\"[AUTO_LANGUAGE],en\\". } }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 133,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 dbo:capital ?x . ?x wdt:P1082 ?num . }",\n        "startIndex": 133,\n        "stopIndex": 143\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT DISTINCT ?num WHERE { wd:Q408 dbo:capital ?x . ?x wdt:P1082 ?num . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbo was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 127,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1197 dbo:areaTotal ?tarea }",\n        "startIndex": 127,\n        "stopIndex": 139\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?tarea WHERE { wd:Q1197 dbo:areaTotal ?tarea }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 32,\n        "query": "SELECT DISTINCT ?number WHERE { wd:Q37156 p:P1128 ?statement. ?statement ps:P1128 ?number. }",\n        "startIndex": 32,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?number WHERE { wd:Q37156 p:P1128 ?statement. ?statement ps:P1128 ?number. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424. ?uri wdt:P161 wd:Q216884. }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424. ?uri wdt:P161 wd:Q216884. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 1,\n        "total": 1\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wdt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 34,\n        "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P495 wd:Q35 . }",\n        "startIndex": 34,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?uri WHERE { ?uri wdt:P31 wd:Q11424 ; wdt:P495 wd:Q35 . }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?country WHERE { wd:Q7270 wdt:P17 ?country. }",\n        "startIndex": 33,\n        "stopIndex": 40\n    },\n    "query": "SELECT DISTINCT ?country WHERE { wd:Q7270 wdt:P17 ?country. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix dbt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 130,\n        "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 dbt:P69 ?AlmaMater }",\n        "startIndex": 130,\n        "stopIndex": 136\n    },\n    "query": "PREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 dbt:P69 ?AlmaMater }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>QueryBadFormed: A bad request has been sent to the endpoint: probably the SPARQL query is badly formed. 
-Response:
-b'{\n    "exception": "Invalid SPARQL query: Prefix wd was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 1,\n        "positionInLine": 33,\n        "query": "SELECT DISTINCT ?creator WHERE { wd:Q930881 wdt:P170 ?creator. }",\n        "startIndex": 33,\n        "stopIndex": 42\n    },\n    "query": "SELECT DISTINCT ?creator WHERE { wd:Q930881 wdt:P170 ?creator. }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
-  </si>
-  <si>
-    <t>Query Bad Formed</t>
-  </si>
-  <si>
-    <t>Wrong Entity</t>
-  </si>
-  <si>
-    <t>Missing P31</t>
-  </si>
-  <si>
-    <t>Wrong Property</t>
+b'{\n    "exception": "Invalid SPARQL query: Prefix dbt was not registered using a PREFIX declaration",\n    "metadata": {\n        "line": 8,\n        "positionInLine": 130,\n        "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 dbt:P69 ?AlmaMater }",\n        "startIndex": 428,\n        "stopIndex": 434\n    },\n    "query": "PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt;\\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\\nPREFIX p: &lt;http://www.wikidata.org/prop/&gt;\\nPREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;\\nPREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;\\n\\nPREFIX wd: &lt;http://www.wikidata.org/entity/&gt; PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt; SELECT ?AlmaMater WHERE { wd:Q567 dbt:P69 ?AlmaMater }",\n    "resultsize": 0,\n    "status": "ERROR",\n    "time": {\n        "computeResult": 0,\n        "total": 0\n    }\n}'</t>
+  </si>
+  <si>
+    <t>PREFIX wdt: &lt;http://www.wikidata.org/prop/direct/&gt;
+PREFIX wd: &lt;http://www.wikidata.org/entity/&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX p: &lt;http://www.wikidata.org/prop/&gt;
+PREFIX ps: &lt;http://www.wikidata.org/prop/statement/&gt;
+PREFIX pq: &lt;http://www.wikidata.org/prop/qualifier/&gt;
+SELECT DISTINCT ?creator WHERE { wd:Q930881 wdt:P170 ?creator. }</t>
   </si>
 </sst>
 </file>
@@ -1919,13 +2369,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1950,545 +2404,626 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>208</v>
       </c>
-      <c r="D2" t="s">
-        <v>308</v>
-      </c>
       <c r="E2" t="s">
-        <v>324</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" t="s">
         <v>109</v>
       </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
       <c r="D3" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="C4" t="s">
-        <v>210</v>
-      </c>
       <c r="D4" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" t="s">
         <v>326</v>
       </c>
-      <c r="F4" t="s">
-        <v>414</v>
-      </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I4" t="s">
+        <v>315</v>
+      </c>
+      <c r="J4" t="s">
+        <v>317</v>
+      </c>
+      <c r="K4" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="C5" t="s">
-        <v>211</v>
-      </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E5" t="s">
-        <v>327</v>
+        <v>227</v>
       </c>
       <c r="F5" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="C6" t="s">
-        <v>212</v>
-      </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>328</v>
+        <v>228</v>
       </c>
       <c r="F6" t="s">
-        <v>415</v>
+        <v>313</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I6" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
       <c r="B7" t="s">
+        <v>329</v>
+      </c>
+      <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="C7" t="s">
-        <v>213</v>
-      </c>
       <c r="D7" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E7" t="s">
-        <v>329</v>
+        <v>229</v>
       </c>
       <c r="F7" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G7" t="b">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I7" t="s">
+        <v>315</v>
+      </c>
+      <c r="J7" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
       <c r="B8" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="C8" t="s">
-        <v>214</v>
-      </c>
       <c r="D8" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="E8" t="s">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="F8" t="s">
-        <v>416</v>
+        <v>313</v>
       </c>
       <c r="G8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" t="s">
+        <v>331</v>
+      </c>
+      <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="C9" t="s">
-        <v>215</v>
-      </c>
       <c r="D9" t="s">
-        <v>309</v>
+        <v>231</v>
       </c>
       <c r="E9" t="s">
-        <v>331</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="G9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
       <c r="D10" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="E10" t="s">
-        <v>332</v>
+        <v>232</v>
       </c>
       <c r="F10" t="s">
-        <v>418</v>
+        <v>313</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I10" t="s">
+        <v>315</v>
+      </c>
+      <c r="J10" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>333</v>
+        <v>233</v>
       </c>
       <c r="F11" t="s">
-        <v>419</v>
+        <v>313</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I11" t="s">
+        <v>315</v>
+      </c>
+      <c r="J11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="C12" t="s">
-        <v>218</v>
-      </c>
       <c r="D12" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E12" t="s">
-        <v>334</v>
+        <v>234</v>
       </c>
       <c r="F12" t="s">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I12" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
       <c r="D13" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E13" t="s">
-        <v>335</v>
+        <v>235</v>
       </c>
       <c r="F13" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G13" t="b">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="C14" t="s">
-        <v>220</v>
-      </c>
       <c r="D14" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E14" t="s">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="F14" t="s">
-        <v>421</v>
+        <v>338</v>
       </c>
       <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I14" t="s">
+        <v>315</v>
+      </c>
+      <c r="J14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="C15" t="s">
-        <v>221</v>
-      </c>
       <c r="D15" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="F15" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G15" t="b">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>340</v>
+      </c>
+      <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="C16" t="s">
-        <v>222</v>
-      </c>
       <c r="D16" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E16" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="F16" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="C17" t="s">
-        <v>223</v>
-      </c>
       <c r="D17" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E17" t="s">
-        <v>339</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
-        <v>422</v>
+        <v>313</v>
       </c>
       <c r="G17" t="b">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I17" t="s">
+        <v>315</v>
+      </c>
+      <c r="J17" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" t="s">
+        <v>342</v>
+      </c>
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
-        <v>224</v>
-      </c>
       <c r="D18" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>340</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G18" t="b">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I18" t="s">
+        <v>315</v>
+      </c>
+      <c r="J18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
       <c r="B19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="C19" t="s">
-        <v>225</v>
-      </c>
       <c r="D19" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="E19" t="s">
-        <v>341</v>
+        <v>241</v>
       </c>
       <c r="F19" t="s">
-        <v>423</v>
+        <v>313</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>26</v>
       </c>
       <c r="B20" t="s">
+        <v>345</v>
+      </c>
+      <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="C20" t="s">
-        <v>226</v>
-      </c>
       <c r="D20" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E20" t="s">
-        <v>342</v>
+        <v>242</v>
       </c>
       <c r="F20" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I20" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
+        <v>346</v>
+      </c>
+      <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
       <c r="D21" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>343</v>
+        <v>243</v>
       </c>
       <c r="F21" t="s">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>28</v>
       </c>
       <c r="B22" t="s">
+        <v>348</v>
+      </c>
+      <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="C22" t="s">
-        <v>228</v>
-      </c>
       <c r="D22" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="E22" t="s">
-        <v>310</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -2497,180 +3032,213 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>29</v>
       </c>
       <c r="B23" t="s">
+        <v>349</v>
+      </c>
+      <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="C23" t="s">
-        <v>229</v>
-      </c>
       <c r="D23" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>244</v>
       </c>
       <c r="F23" t="s">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I23" t="s">
+        <v>316</v>
+      </c>
+      <c r="J23" t="s">
+        <v>317</v>
+      </c>
+      <c r="K23" t="s">
+        <v>315</v>
+      </c>
+      <c r="L23" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>30</v>
       </c>
       <c r="B24" t="s">
+        <v>351</v>
+      </c>
+      <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="C24" t="s">
-        <v>230</v>
-      </c>
       <c r="D24" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E24" t="s">
-        <v>345</v>
+        <v>245</v>
       </c>
       <c r="F24" t="s">
-        <v>426</v>
+        <v>313</v>
       </c>
       <c r="G24" t="b">
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I24" t="s">
+        <v>315</v>
+      </c>
+      <c r="J24" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>31</v>
       </c>
       <c r="B25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="C25" t="s">
-        <v>231</v>
-      </c>
       <c r="D25" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E25" t="s">
-        <v>346</v>
+        <v>246</v>
       </c>
       <c r="F25" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
       <c r="G25" t="b">
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I25" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>32</v>
       </c>
       <c r="B26" t="s">
+        <v>354</v>
+      </c>
+      <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="C26" t="s">
-        <v>232</v>
-      </c>
       <c r="D26" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E26" t="s">
-        <v>347</v>
+        <v>247</v>
       </c>
       <c r="F26" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I26" t="s">
+        <v>315</v>
+      </c>
+      <c r="J26" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>33</v>
       </c>
       <c r="B27" t="s">
+        <v>355</v>
+      </c>
+      <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="C27" t="s">
-        <v>233</v>
-      </c>
       <c r="D27" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E27" t="s">
-        <v>348</v>
+        <v>248</v>
       </c>
       <c r="F27" t="s">
-        <v>428</v>
+        <v>356</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I27" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
       <c r="B28" t="s">
+        <v>357</v>
+      </c>
+      <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="C28" t="s">
-        <v>234</v>
-      </c>
       <c r="D28" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E28" t="s">
-        <v>349</v>
+        <v>249</v>
       </c>
       <c r="F28" t="s">
-        <v>429</v>
+        <v>358</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I28" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>35</v>
       </c>
       <c r="B29" t="s">
+        <v>359</v>
+      </c>
+      <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="C29" t="s">
-        <v>235</v>
-      </c>
       <c r="D29" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="F29" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -2679,24 +3247,24 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>36</v>
       </c>
       <c r="B30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="C30" t="s">
-        <v>236</v>
-      </c>
       <c r="D30" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="F30" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -2705,206 +3273,242 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>37</v>
       </c>
       <c r="B31" t="s">
+        <v>361</v>
+      </c>
+      <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="C31" t="s">
-        <v>237</v>
-      </c>
       <c r="D31" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E31" t="s">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="F31" t="s">
-        <v>430</v>
+        <v>313</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I31" t="s">
+        <v>315</v>
+      </c>
+      <c r="J31" t="s">
+        <v>317</v>
+      </c>
+      <c r="K31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>38</v>
       </c>
       <c r="B32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="C32" t="s">
-        <v>238</v>
-      </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>251</v>
       </c>
       <c r="E32" t="s">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="F32" t="s">
-        <v>431</v>
+        <v>313</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>39</v>
       </c>
       <c r="B33" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" t="s">
         <v>139</v>
       </c>
-      <c r="C33" t="s">
-        <v>239</v>
-      </c>
       <c r="D33" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E33" t="s">
-        <v>352</v>
+        <v>252</v>
       </c>
       <c r="F33" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G33" t="b">
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I33" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>40</v>
       </c>
       <c r="B34" t="s">
+        <v>364</v>
+      </c>
+      <c r="C34" t="s">
         <v>140</v>
       </c>
-      <c r="C34" t="s">
-        <v>240</v>
-      </c>
       <c r="D34" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E34" t="s">
-        <v>353</v>
+        <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>432</v>
+        <v>365</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I34" t="s">
+        <v>315</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>41</v>
       </c>
       <c r="B35" t="s">
+        <v>366</v>
+      </c>
+      <c r="C35" t="s">
         <v>141</v>
       </c>
-      <c r="C35" t="s">
-        <v>241</v>
-      </c>
       <c r="D35" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E35" t="s">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="F35" t="s">
-        <v>433</v>
+        <v>367</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I35" t="s">
+        <v>315</v>
+      </c>
+      <c r="J35" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>42</v>
       </c>
       <c r="B36" t="s">
+        <v>368</v>
+      </c>
+      <c r="C36" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
-        <v>242</v>
-      </c>
       <c r="D36" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E36" t="s">
-        <v>355</v>
+        <v>255</v>
       </c>
       <c r="F36" t="s">
-        <v>434</v>
+        <v>313</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I36" t="s">
+        <v>315</v>
+      </c>
+      <c r="J36" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>43</v>
       </c>
       <c r="B37" t="s">
+        <v>369</v>
+      </c>
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" t="s">
-        <v>243</v>
-      </c>
       <c r="D37" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E37" t="s">
-        <v>356</v>
+        <v>256</v>
       </c>
       <c r="F37" t="s">
-        <v>435</v>
+        <v>313</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J37" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" t="s">
+        <v>370</v>
+      </c>
+      <c r="C38" t="s">
         <v>144</v>
       </c>
-      <c r="C38" t="s">
-        <v>244</v>
-      </c>
       <c r="D38" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="F38" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -2913,388 +3517,427 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="B39" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" t="s">
         <v>145</v>
       </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
       <c r="D39" t="s">
-        <v>309</v>
+        <v>257</v>
       </c>
       <c r="E39" t="s">
-        <v>357</v>
+        <v>257</v>
       </c>
       <c r="F39" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
       <c r="G39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" t="s">
+        <v>372</v>
+      </c>
+      <c r="C40" t="s">
         <v>146</v>
       </c>
-      <c r="C40" t="s">
-        <v>246</v>
-      </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>358</v>
+        <v>258</v>
       </c>
       <c r="F40" t="s">
-        <v>437</v>
+        <v>373</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" t="s">
+        <v>374</v>
+      </c>
+      <c r="C41" t="s">
         <v>147</v>
       </c>
-      <c r="C41" t="s">
-        <v>247</v>
-      </c>
       <c r="D41" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>359</v>
+        <v>259</v>
       </c>
       <c r="F41" t="s">
-        <v>438</v>
+        <v>313</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I41" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C42" t="s">
         <v>148</v>
       </c>
-      <c r="C42" t="s">
-        <v>248</v>
-      </c>
       <c r="D42" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E42" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I42" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>49</v>
       </c>
       <c r="B43" t="s">
+        <v>376</v>
+      </c>
+      <c r="C43" t="s">
         <v>149</v>
       </c>
-      <c r="C43" t="s">
-        <v>249</v>
-      </c>
       <c r="D43" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="E43" t="s">
-        <v>361</v>
+        <v>261</v>
       </c>
       <c r="F43" t="s">
-        <v>439</v>
+        <v>313</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I43" t="s">
+        <v>317</v>
+      </c>
+      <c r="J43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
       <c r="B44" t="s">
+        <v>378</v>
+      </c>
+      <c r="C44" t="s">
         <v>150</v>
       </c>
-      <c r="C44" t="s">
-        <v>250</v>
-      </c>
       <c r="D44" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E44" t="s">
-        <v>362</v>
+        <v>262</v>
       </c>
       <c r="F44" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G44" t="b">
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I44" t="s">
+        <v>317</v>
+      </c>
+      <c r="J44" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>51</v>
       </c>
       <c r="B45" t="s">
+        <v>379</v>
+      </c>
+      <c r="C45" t="s">
         <v>151</v>
       </c>
-      <c r="C45" t="s">
-        <v>251</v>
-      </c>
       <c r="D45" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>363</v>
+        <v>263</v>
       </c>
       <c r="F45" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I45" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>52</v>
       </c>
       <c r="B46" t="s">
+        <v>380</v>
+      </c>
+      <c r="C46" t="s">
         <v>152</v>
       </c>
-      <c r="C46" t="s">
-        <v>252</v>
-      </c>
       <c r="D46" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E46" t="s">
-        <v>364</v>
+        <v>264</v>
       </c>
       <c r="F46" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>53</v>
       </c>
       <c r="B47" t="s">
+        <v>381</v>
+      </c>
+      <c r="C47" t="s">
         <v>153</v>
       </c>
-      <c r="C47" t="s">
-        <v>253</v>
-      </c>
       <c r="D47" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E47" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="F47" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I47" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>54</v>
       </c>
       <c r="B48" t="s">
+        <v>382</v>
+      </c>
+      <c r="C48" t="s">
         <v>154</v>
       </c>
-      <c r="C48" t="s">
-        <v>254</v>
-      </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E48" t="s">
-        <v>366</v>
+        <v>266</v>
       </c>
       <c r="F48" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+      <c r="I48" t="s">
+        <v>315</v>
+      </c>
+      <c r="J48" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>55</v>
       </c>
       <c r="B49" t="s">
+        <v>383</v>
+      </c>
+      <c r="C49" t="s">
         <v>155</v>
       </c>
-      <c r="C49" t="s">
-        <v>255</v>
-      </c>
       <c r="D49" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E49" t="s">
-        <v>367</v>
+        <v>267</v>
       </c>
       <c r="F49" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>56</v>
       </c>
       <c r="B50" t="s">
+        <v>384</v>
+      </c>
+      <c r="C50" t="s">
         <v>156</v>
       </c>
-      <c r="C50" t="s">
-        <v>256</v>
-      </c>
       <c r="D50" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E50" t="s">
-        <v>368</v>
+        <v>268</v>
       </c>
       <c r="F50" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>57</v>
       </c>
       <c r="B51" t="s">
+        <v>385</v>
+      </c>
+      <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="C51" t="s">
-        <v>257</v>
-      </c>
       <c r="D51" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E51" t="s">
-        <v>369</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
-        <v>440</v>
+        <v>313</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I51" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>58</v>
       </c>
       <c r="B52" t="s">
+        <v>386</v>
+      </c>
+      <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="C52" t="s">
-        <v>258</v>
-      </c>
       <c r="D52" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E52" t="s">
-        <v>370</v>
+        <v>270</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G52" t="b">
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>59</v>
       </c>
       <c r="B53" t="s">
+        <v>387</v>
+      </c>
+      <c r="C53" t="s">
         <v>159</v>
       </c>
-      <c r="C53" t="s">
-        <v>259</v>
-      </c>
       <c r="D53" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="E53" t="s">
-        <v>315</v>
+        <v>215</v>
       </c>
       <c r="F53" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -3303,102 +3946,117 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
       <c r="B54" t="s">
+        <v>388</v>
+      </c>
+      <c r="C54" t="s">
         <v>160</v>
       </c>
-      <c r="C54" t="s">
-        <v>260</v>
-      </c>
       <c r="D54" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E54" t="s">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="F54" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I54" t="s">
+        <v>315</v>
+      </c>
+      <c r="J54" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" t="s">
         <v>161</v>
       </c>
-      <c r="C55" t="s">
-        <v>261</v>
-      </c>
       <c r="D55" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E55" t="s">
-        <v>372</v>
+        <v>272</v>
       </c>
       <c r="F55" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I55" t="s">
+        <v>315</v>
+      </c>
+      <c r="J55" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>62</v>
       </c>
       <c r="B56" t="s">
+        <v>390</v>
+      </c>
+      <c r="C56" t="s">
         <v>162</v>
       </c>
-      <c r="C56" t="s">
-        <v>262</v>
-      </c>
       <c r="D56" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E56" t="s">
-        <v>373</v>
+        <v>273</v>
       </c>
       <c r="F56" t="s">
-        <v>442</v>
+        <v>313</v>
       </c>
       <c r="G56" t="b">
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I56" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>63</v>
       </c>
       <c r="B57" t="s">
+        <v>391</v>
+      </c>
+      <c r="C57" t="s">
         <v>163</v>
       </c>
-      <c r="C57" t="s">
-        <v>263</v>
-      </c>
       <c r="D57" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="E57" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="F57" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -3407,76 +4065,79 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>64</v>
       </c>
       <c r="B58" t="s">
+        <v>392</v>
+      </c>
+      <c r="C58" t="s">
         <v>164</v>
       </c>
-      <c r="C58" t="s">
-        <v>264</v>
-      </c>
       <c r="D58" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E58" t="s">
-        <v>374</v>
+        <v>274</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>313</v>
       </c>
       <c r="G58" t="b">
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I58" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>65</v>
       </c>
       <c r="B59" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" t="s">
         <v>165</v>
       </c>
-      <c r="C59" t="s">
-        <v>265</v>
-      </c>
       <c r="D59" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E59" t="s">
-        <v>375</v>
+        <v>275</v>
       </c>
       <c r="F59" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>66</v>
       </c>
       <c r="B60" t="s">
+        <v>394</v>
+      </c>
+      <c r="C60" t="s">
         <v>166</v>
       </c>
-      <c r="C60" t="s">
-        <v>266</v>
-      </c>
       <c r="D60" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="E60" t="s">
-        <v>317</v>
+        <v>217</v>
       </c>
       <c r="F60" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -3485,76 +4146,88 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>67</v>
       </c>
       <c r="B61" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" t="s">
         <v>167</v>
       </c>
-      <c r="C61" t="s">
-        <v>267</v>
-      </c>
       <c r="D61" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E61" t="s">
-        <v>376</v>
+        <v>276</v>
       </c>
       <c r="F61" t="s">
-        <v>444</v>
+        <v>313</v>
       </c>
       <c r="G61" t="b">
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I61" t="s">
+        <v>317</v>
+      </c>
+      <c r="J61" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>68</v>
       </c>
       <c r="B62" t="s">
+        <v>396</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="C62" t="s">
-        <v>268</v>
-      </c>
       <c r="D62" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E62" t="s">
-        <v>377</v>
+        <v>277</v>
       </c>
       <c r="F62" t="s">
-        <v>445</v>
+        <v>313</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I62" t="s">
+        <v>315</v>
+      </c>
+      <c r="J62" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>69</v>
       </c>
       <c r="B63" t="s">
+        <v>397</v>
+      </c>
+      <c r="C63" t="s">
         <v>169</v>
       </c>
-      <c r="C63" t="s">
-        <v>269</v>
-      </c>
       <c r="D63" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="E63" t="s">
-        <v>318</v>
+        <v>218</v>
       </c>
       <c r="F63" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
@@ -3563,284 +4236,314 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>70</v>
       </c>
       <c r="B64" t="s">
+        <v>398</v>
+      </c>
+      <c r="C64" t="s">
         <v>170</v>
       </c>
-      <c r="C64" t="s">
-        <v>270</v>
-      </c>
       <c r="D64" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E64" t="s">
-        <v>378</v>
+        <v>278</v>
       </c>
       <c r="F64" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I64" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>71</v>
       </c>
       <c r="B65" t="s">
+        <v>399</v>
+      </c>
+      <c r="C65" t="s">
         <v>171</v>
       </c>
-      <c r="C65" t="s">
-        <v>271</v>
-      </c>
       <c r="D65" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E65" t="s">
-        <v>379</v>
+        <v>279</v>
       </c>
       <c r="F65" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I65" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>72</v>
       </c>
       <c r="B66" t="s">
+        <v>400</v>
+      </c>
+      <c r="C66" t="s">
         <v>172</v>
       </c>
-      <c r="C66" t="s">
-        <v>272</v>
-      </c>
       <c r="D66" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E66" t="s">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="F66" t="s">
-        <v>447</v>
+        <v>313</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I66" t="s">
+        <v>315</v>
+      </c>
+      <c r="J66" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
+        <v>401</v>
+      </c>
+      <c r="C67" t="s">
         <v>173</v>
       </c>
-      <c r="C67" t="s">
-        <v>273</v>
-      </c>
       <c r="D67" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E67" t="s">
-        <v>381</v>
+        <v>281</v>
       </c>
       <c r="F67" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>74</v>
       </c>
       <c r="B68" t="s">
+        <v>402</v>
+      </c>
+      <c r="C68" t="s">
         <v>174</v>
       </c>
-      <c r="C68" t="s">
-        <v>274</v>
-      </c>
       <c r="D68" t="s">
-        <v>309</v>
+        <v>403</v>
       </c>
       <c r="E68" t="s">
-        <v>382</v>
+        <v>282</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>313</v>
       </c>
       <c r="G68" t="b">
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I68" t="s">
+        <v>315</v>
+      </c>
+      <c r="J68" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>75</v>
       </c>
       <c r="B69" t="s">
+        <v>404</v>
+      </c>
+      <c r="C69" t="s">
         <v>175</v>
       </c>
-      <c r="C69" t="s">
-        <v>275</v>
-      </c>
       <c r="D69" t="s">
-        <v>319</v>
+        <v>219</v>
       </c>
       <c r="E69" t="s">
-        <v>383</v>
+        <v>283</v>
       </c>
       <c r="F69" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I69" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" t="s">
+        <v>405</v>
+      </c>
+      <c r="C70" t="s">
         <v>176</v>
       </c>
-      <c r="C70" t="s">
-        <v>276</v>
-      </c>
       <c r="D70" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E70" t="s">
-        <v>384</v>
+        <v>284</v>
       </c>
       <c r="F70" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>77</v>
       </c>
       <c r="B71" t="s">
+        <v>406</v>
+      </c>
+      <c r="C71" t="s">
         <v>177</v>
       </c>
-      <c r="C71" t="s">
-        <v>277</v>
-      </c>
       <c r="D71" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E71" t="s">
-        <v>385</v>
+        <v>285</v>
       </c>
       <c r="F71" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+      <c r="I71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>78</v>
       </c>
       <c r="B72" t="s">
+        <v>407</v>
+      </c>
+      <c r="C72" t="s">
         <v>178</v>
       </c>
-      <c r="C72" t="s">
-        <v>278</v>
-      </c>
       <c r="D72" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E72" t="s">
-        <v>386</v>
+        <v>286</v>
       </c>
       <c r="F72" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G72" t="b">
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I72" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>79</v>
       </c>
       <c r="B73" t="s">
+        <v>408</v>
+      </c>
+      <c r="C73" t="s">
         <v>179</v>
       </c>
-      <c r="C73" t="s">
-        <v>279</v>
-      </c>
       <c r="D73" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E73" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="F73" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I73" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>80</v>
       </c>
       <c r="B74" t="s">
+        <v>409</v>
+      </c>
+      <c r="C74" t="s">
         <v>180</v>
       </c>
-      <c r="C74" t="s">
-        <v>280</v>
-      </c>
       <c r="D74" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="E74" t="s">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="F74" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G74" t="b">
         <v>1</v>
@@ -3849,258 +4552,300 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>81</v>
       </c>
       <c r="B75" t="s">
+        <v>410</v>
+      </c>
+      <c r="C75" t="s">
         <v>181</v>
       </c>
-      <c r="C75" t="s">
-        <v>281</v>
-      </c>
       <c r="D75" t="s">
-        <v>309</v>
+        <v>411</v>
       </c>
       <c r="E75" t="s">
-        <v>388</v>
+        <v>288</v>
       </c>
       <c r="F75" t="s">
-        <v>449</v>
+        <v>313</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I75" t="s">
+        <v>319</v>
+      </c>
+      <c r="J75" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>82</v>
       </c>
       <c r="B76" t="s">
+        <v>412</v>
+      </c>
+      <c r="C76" t="s">
         <v>182</v>
       </c>
-      <c r="C76" t="s">
-        <v>282</v>
-      </c>
       <c r="D76" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E76" t="s">
-        <v>389</v>
+        <v>289</v>
       </c>
       <c r="F76" t="s">
-        <v>450</v>
+        <v>313</v>
       </c>
       <c r="G76" t="b">
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I76" t="s">
+        <v>317</v>
+      </c>
+      <c r="J76" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>83</v>
       </c>
       <c r="B77" t="s">
+        <v>413</v>
+      </c>
+      <c r="C77" t="s">
         <v>183</v>
       </c>
-      <c r="C77" t="s">
-        <v>283</v>
-      </c>
       <c r="D77" t="s">
-        <v>309</v>
+        <v>414</v>
       </c>
       <c r="E77" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="F77" t="s">
-        <v>451</v>
+        <v>313</v>
       </c>
       <c r="G77" t="b">
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I77" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>84</v>
       </c>
       <c r="B78" t="s">
+        <v>415</v>
+      </c>
+      <c r="C78" t="s">
         <v>184</v>
       </c>
-      <c r="C78" t="s">
-        <v>284</v>
-      </c>
       <c r="D78" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E78" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
       <c r="F78" t="s">
-        <v>452</v>
+        <v>313</v>
       </c>
       <c r="G78" t="b">
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I78" t="s">
+        <v>315</v>
+      </c>
+      <c r="J78" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>85</v>
       </c>
       <c r="B79" t="s">
+        <v>416</v>
+      </c>
+      <c r="C79" t="s">
         <v>185</v>
       </c>
-      <c r="C79" t="s">
-        <v>285</v>
-      </c>
       <c r="D79" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E79" t="s">
-        <v>392</v>
+        <v>292</v>
       </c>
       <c r="F79" t="s">
-        <v>453</v>
+        <v>313</v>
       </c>
       <c r="G79" t="b">
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I79" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>86</v>
       </c>
       <c r="B80" t="s">
+        <v>417</v>
+      </c>
+      <c r="C80" t="s">
         <v>186</v>
       </c>
-      <c r="C80" t="s">
-        <v>286</v>
-      </c>
       <c r="D80" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E80" t="s">
-        <v>393</v>
+        <v>293</v>
       </c>
       <c r="F80" t="s">
-        <v>454</v>
+        <v>418</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I80" t="s">
+        <v>315</v>
+      </c>
+      <c r="J80" t="s">
+        <v>317</v>
+      </c>
+      <c r="K80" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>87</v>
       </c>
       <c r="B81" t="s">
+        <v>419</v>
+      </c>
+      <c r="C81" t="s">
         <v>187</v>
       </c>
-      <c r="C81" t="s">
-        <v>287</v>
-      </c>
       <c r="D81" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E81" t="s">
-        <v>394</v>
+        <v>294</v>
       </c>
       <c r="F81" t="s">
-        <v>455</v>
+        <v>313</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I81" t="s">
+        <v>315</v>
+      </c>
+      <c r="J81" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>88</v>
       </c>
       <c r="B82" t="s">
+        <v>420</v>
+      </c>
+      <c r="C82" t="s">
         <v>188</v>
       </c>
-      <c r="C82" t="s">
-        <v>288</v>
-      </c>
       <c r="D82" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E82" t="s">
-        <v>395</v>
+        <v>295</v>
       </c>
       <c r="F82" t="s">
-        <v>456</v>
+        <v>313</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>89</v>
       </c>
       <c r="B83" t="s">
+        <v>421</v>
+      </c>
+      <c r="C83" t="s">
         <v>189</v>
       </c>
-      <c r="C83" t="s">
-        <v>289</v>
-      </c>
       <c r="D83" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E83" t="s">
-        <v>396</v>
+        <v>296</v>
       </c>
       <c r="F83" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G83" t="b">
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I83" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>90</v>
       </c>
       <c r="B84" t="s">
+        <v>422</v>
+      </c>
+      <c r="C84" t="s">
         <v>190</v>
       </c>
-      <c r="C84" t="s">
-        <v>290</v>
-      </c>
       <c r="D84" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="E84" t="s">
-        <v>321</v>
+        <v>221</v>
       </c>
       <c r="F84" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G84" t="b">
         <v>1</v>
@@ -4109,50 +4854,53 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>91</v>
       </c>
       <c r="B85" t="s">
+        <v>423</v>
+      </c>
+      <c r="C85" t="s">
         <v>191</v>
       </c>
-      <c r="C85" t="s">
-        <v>291</v>
-      </c>
       <c r="D85" t="s">
-        <v>309</v>
+        <v>424</v>
       </c>
       <c r="E85" t="s">
-        <v>397</v>
+        <v>297</v>
       </c>
       <c r="F85" t="s">
-        <v>457</v>
+        <v>313</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I85" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>92</v>
       </c>
       <c r="B86" t="s">
+        <v>425</v>
+      </c>
+      <c r="C86" t="s">
         <v>192</v>
       </c>
-      <c r="C86" t="s">
-        <v>292</v>
-      </c>
       <c r="D86" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="E86" t="s">
-        <v>322</v>
+        <v>222</v>
       </c>
       <c r="F86" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G86" t="b">
         <v>1</v>
@@ -4161,394 +4909,451 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>93</v>
       </c>
       <c r="B87" t="s">
+        <v>426</v>
+      </c>
+      <c r="C87" t="s">
         <v>193</v>
       </c>
-      <c r="C87" t="s">
-        <v>293</v>
-      </c>
       <c r="D87" t="s">
-        <v>309</v>
+        <v>427</v>
       </c>
       <c r="E87" t="s">
-        <v>398</v>
+        <v>298</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
+        <v>313</v>
       </c>
       <c r="G87" t="b">
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I87" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>94</v>
       </c>
       <c r="B88" t="s">
+        <v>428</v>
+      </c>
+      <c r="C88" t="s">
         <v>194</v>
       </c>
-      <c r="C88" t="s">
-        <v>294</v>
-      </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E88" t="s">
-        <v>399</v>
+        <v>299</v>
       </c>
       <c r="F88" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I88" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>95</v>
       </c>
       <c r="B89" t="s">
+        <v>430</v>
+      </c>
+      <c r="C89" t="s">
         <v>195</v>
       </c>
-      <c r="C89" t="s">
-        <v>295</v>
-      </c>
       <c r="D89" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E89" t="s">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="F89" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>96</v>
       </c>
       <c r="B90" t="s">
+        <v>431</v>
+      </c>
+      <c r="C90" t="s">
         <v>196</v>
       </c>
-      <c r="C90" t="s">
-        <v>296</v>
-      </c>
       <c r="D90" t="s">
-        <v>323</v>
+        <v>223</v>
       </c>
       <c r="E90" t="s">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="F90" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I90" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>97</v>
       </c>
       <c r="B91" t="s">
+        <v>432</v>
+      </c>
+      <c r="C91" t="s">
         <v>197</v>
       </c>
-      <c r="C91" t="s">
-        <v>297</v>
-      </c>
       <c r="D91" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>402</v>
+        <v>302</v>
       </c>
       <c r="F91" t="s">
-        <v>460</v>
+        <v>433</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I91" t="s">
+        <v>315</v>
+      </c>
+      <c r="J91" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>98</v>
       </c>
       <c r="B92" t="s">
+        <v>434</v>
+      </c>
+      <c r="C92" t="s">
         <v>198</v>
       </c>
-      <c r="C92" t="s">
-        <v>298</v>
-      </c>
       <c r="D92" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
-        <v>403</v>
+        <v>303</v>
       </c>
       <c r="F92" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I92" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>99</v>
       </c>
       <c r="B93" t="s">
+        <v>436</v>
+      </c>
+      <c r="C93" t="s">
         <v>199</v>
       </c>
-      <c r="C93" t="s">
-        <v>299</v>
-      </c>
       <c r="D93" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E93" t="s">
-        <v>404</v>
+        <v>304</v>
       </c>
       <c r="F93" t="s">
-        <v>462</v>
+        <v>437</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I93" t="s">
+        <v>319</v>
+      </c>
+      <c r="J93" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>100</v>
       </c>
       <c r="B94" t="s">
+        <v>438</v>
+      </c>
+      <c r="C94" t="s">
         <v>200</v>
       </c>
-      <c r="C94" t="s">
-        <v>300</v>
-      </c>
       <c r="D94" t="s">
-        <v>309</v>
+        <v>439</v>
       </c>
       <c r="E94" t="s">
-        <v>405</v>
+        <v>305</v>
       </c>
       <c r="F94" t="s">
-        <v>463</v>
+        <v>313</v>
       </c>
       <c r="G94" t="b">
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I94" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>101</v>
       </c>
       <c r="B95" t="s">
+        <v>440</v>
+      </c>
+      <c r="C95" t="s">
         <v>201</v>
       </c>
-      <c r="C95" t="s">
-        <v>301</v>
-      </c>
       <c r="D95" t="s">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="E95" t="s">
-        <v>406</v>
+        <v>306</v>
       </c>
       <c r="F95" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I95" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>102</v>
       </c>
       <c r="B96" t="s">
+        <v>441</v>
+      </c>
+      <c r="C96" t="s">
         <v>202</v>
       </c>
-      <c r="C96" t="s">
-        <v>302</v>
-      </c>
       <c r="D96" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E96" t="s">
-        <v>407</v>
+        <v>307</v>
       </c>
       <c r="F96" t="s">
-        <v>464</v>
+        <v>313</v>
       </c>
       <c r="G96" t="b">
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I96" t="s">
+        <v>315</v>
+      </c>
+      <c r="J96" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>103</v>
       </c>
       <c r="B97" t="s">
+        <v>442</v>
+      </c>
+      <c r="C97" t="s">
         <v>203</v>
       </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
       <c r="D97" t="s">
-        <v>309</v>
+        <v>443</v>
       </c>
       <c r="E97" t="s">
-        <v>408</v>
+        <v>308</v>
       </c>
       <c r="F97" t="s">
-        <v>465</v>
+        <v>313</v>
       </c>
       <c r="G97" t="b">
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I97" t="s">
+        <v>317</v>
+      </c>
+      <c r="J97" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
       <c r="B98" t="s">
+        <v>444</v>
+      </c>
+      <c r="C98" t="s">
         <v>204</v>
       </c>
-      <c r="C98" t="s">
-        <v>304</v>
-      </c>
       <c r="D98" t="s">
+        <v>208</v>
+      </c>
+      <c r="E98" t="s">
         <v>309</v>
       </c>
-      <c r="E98" t="s">
-        <v>409</v>
-      </c>
       <c r="F98" t="s">
-        <v>466</v>
+        <v>313</v>
       </c>
       <c r="G98" t="b">
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>105</v>
       </c>
       <c r="B99" t="s">
+        <v>445</v>
+      </c>
+      <c r="C99" t="s">
         <v>205</v>
       </c>
-      <c r="C99" t="s">
-        <v>305</v>
-      </c>
       <c r="D99" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="E99" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="F99" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="G99" t="b">
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+      <c r="I99" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>106</v>
       </c>
       <c r="B100" t="s">
+        <v>446</v>
+      </c>
+      <c r="C100" t="s">
         <v>206</v>
       </c>
-      <c r="C100" t="s">
-        <v>306</v>
-      </c>
       <c r="D100" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="E100" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="F100" t="s">
-        <v>467</v>
+        <v>447</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+        <v>314</v>
+      </c>
+      <c r="I100" t="s">
+        <v>315</v>
+      </c>
+      <c r="J100" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>107</v>
       </c>
       <c r="B101" t="s">
+        <v>448</v>
+      </c>
+      <c r="C101" t="s">
         <v>207</v>
       </c>
-      <c r="C101" t="s">
-        <v>307</v>
-      </c>
       <c r="D101" t="s">
-        <v>309</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="F101" t="s">
-        <v>468</v>
+        <v>313</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>469</v>
+        <v>314</v>
+      </c>
+      <c r="I101" t="s">
+        <v>315</v>
       </c>
     </row>
   </sheetData>

--- a/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_wikidata_results_analysis.xlsx
+++ b/QALD9-Plus-testing/baseline-model/baseline-dbpedia-wikidata/baseline_mistral_wikidata_results_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Meine Ablage\Master Thesis\SPARQL-Query-Translation-QALD9\QALD9-Plus-testing\baseline-model\baseline-dbpedia-wikidata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DA6268-6E1B-4589-89E4-5095E48B0696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F51F44-959A-478E-AB63-08ED1A53BB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2371,7 +2371,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5359,5 +5361,6 @@
   </sheetData>
   <autoFilter ref="A1:H101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>